--- a/QA/Test-Documentation/Check Lists/Checklist for Registration Form (smoke).xlsx
+++ b/QA/Test-Documentation/Check Lists/Checklist for Registration Form (smoke).xlsx
@@ -1,12 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="artem"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1647088376" val="976" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1647088376" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1647088376" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1647088376"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,7 +43,7 @@
     <t>Tester</t>
   </si>
   <si>
-    <t>Artem Dzh</t>
+    <t>Artem</t>
   </si>
   <si>
     <t>ID</t>
@@ -103,157 +115,250 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="10">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="DD.MM.YYYY"/>
+    <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1647088376" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="Verdana"/>
+      <charset val="204"/>
+      <family val="2"/>
       <b/>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1647088376" ulstyle="none" kern="1">
+            <pm:latin face="Verdana" sz="200" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <charset val="204"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Verdana"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1647088376" ulstyle="none" kern="1">
+            <pm:latin face="Verdana" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA2C4C9"/>
-        <bgColor rgb="FFA2C4C9"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647088376" type="1" fgLvl="100" fgClr="00A2C4C9" bgLvl="0" bgClr="00A2C4C9"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647088376" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647088376"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647088376"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647088376"/>
+        </ext>
+      </extLst>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1647088376" count="1">
+        <pm:charStyle name="Обычный" fontId="0" Id="1"/>
+      </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1647088376" count="1">
+        <pm:color name="Цвет 24" rgb="A2C4C9"/>
+      </pm:colors>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface="SimSun"/>
+        <a:cs typeface="Times New Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -265,157 +370,220 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:X1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="13" defaultColWidth="14.432432" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.57"/>
-    <col customWidth="1" min="2" max="2" width="40.29"/>
-    <col customWidth="1" min="3" max="3" width="13.29"/>
-    <col customWidth="1" min="4" max="4" width="48.0"/>
-    <col customWidth="1" min="5" max="5" width="15.29"/>
-    <col customWidth="1" min="6" max="6" width="12.14"/>
+    <col min="1" max="1" width="6.567568" customWidth="1"/>
+    <col min="2" max="2" width="40.288288" customWidth="1"/>
+    <col min="3" max="3" width="13.288288" customWidth="1"/>
+    <col min="4" max="4" width="48.000000" customWidth="1"/>
+    <col min="5" max="5" width="15.288288" customWidth="1"/>
+    <col min="6" max="6" width="12.135135" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +609,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -467,12 +635,12 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4">
-        <v>44606.0</v>
+      <c r="F3" s="4" t="n">
+        <v>44606</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -493,7 +661,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -519,7 +687,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -557,7 +725,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -585,17 +753,17 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10">
-        <v>9.260010203E9</v>
+      <c r="C7" s="7" t="n">
+        <v>9260010203</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="3"/>
@@ -619,7 +787,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>17</v>
@@ -647,17 +815,17 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12">
-        <v>456123.0</v>
+      <c r="C9" s="7" t="n">
+        <v>456123</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="3"/>
@@ -681,7 +849,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -709,17 +877,17 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12">
-        <v>1.2345678E7</v>
+      <c r="C11" s="7" t="n">
+        <v>12345678</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="3"/>
@@ -743,17 +911,17 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="3"/>
@@ -777,7 +945,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7"/>
@@ -803,7 +971,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="7"/>
@@ -829,7 +997,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="C15" s="7"/>
       <c r="D15" s="3"/>
@@ -854,7 +1022,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
@@ -880,7 +1048,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7"/>
@@ -906,7 +1074,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7"/>
@@ -932,7 +1100,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7"/>
@@ -958,7 +1126,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7"/>
@@ -984,7 +1152,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7"/>
@@ -1010,7 +1178,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7"/>
@@ -1036,7 +1204,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7"/>
@@ -1062,7 +1230,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7"/>
@@ -1088,7 +1256,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7"/>
@@ -1114,7 +1282,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7"/>
@@ -1140,7 +1308,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7"/>
@@ -1166,7 +1334,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="7"/>
@@ -1192,7 +1360,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7"/>
@@ -1218,7 +1386,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="7"/>
@@ -1244,7 +1412,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="7"/>
@@ -1270,7 +1438,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7"/>
@@ -1296,7 +1464,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="7"/>
@@ -1322,7 +1490,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="7"/>
@@ -1348,7 +1516,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="7"/>
@@ -1374,7 +1542,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="7"/>
@@ -1400,7 +1568,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="7"/>
@@ -1426,7 +1594,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="7"/>
@@ -1452,7 +1620,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="7"/>
@@ -1478,7 +1646,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="7"/>
@@ -1504,7 +1672,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="7"/>
@@ -1530,7 +1698,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="7"/>
@@ -1556,7 +1724,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="7"/>
@@ -1582,7 +1750,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="7"/>
@@ -1608,7 +1776,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="7"/>
@@ -1634,7 +1802,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="7"/>
@@ -1660,7 +1828,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="7"/>
@@ -1686,7 +1854,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="7"/>
@@ -1712,7 +1880,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="7"/>
@@ -1738,7 +1906,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:24" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="7"/>
@@ -1764,7 +1932,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="7"/>
@@ -1790,7 +1958,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="7"/>
@@ -1816,7 +1984,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:24" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="7"/>
@@ -1842,7 +2010,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:24" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="7"/>
@@ -1868,7 +2036,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:24" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="7"/>
@@ -1894,7 +2062,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:24" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="7"/>
@@ -1920,7 +2088,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="7"/>
@@ -1946,7 +2114,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="7"/>
@@ -1972,7 +2140,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:24" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="7"/>
@@ -1998,7 +2166,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:24" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="7"/>
@@ -2024,7 +2192,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="7"/>
@@ -2050,7 +2218,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="7"/>
@@ -2076,7 +2244,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:24" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="7"/>
@@ -2102,7 +2270,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:24" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="7"/>
@@ -2128,7 +2296,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="7"/>
@@ -2154,7 +2322,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:24" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="7"/>
@@ -2180,7 +2348,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:24" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="7"/>
@@ -2206,7 +2374,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:24" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="7"/>
@@ -2232,7 +2400,7 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:24" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="7"/>
@@ -2258,7 +2426,7 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:24" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="7"/>
@@ -2284,7 +2452,7 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:24" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="7"/>
@@ -2310,7 +2478,7 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:24" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="7"/>
@@ -2336,7 +2504,7 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:24" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="7"/>
@@ -2362,7 +2530,7 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:24" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="7"/>
@@ -2388,7 +2556,7 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:24" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="7"/>
@@ -2414,7 +2582,7 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:24" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="7"/>
@@ -2440,7 +2608,7 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:24" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="7"/>
@@ -2466,7 +2634,7 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:24" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="7"/>
@@ -2492,7 +2660,7 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:24" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="7"/>
@@ -2518,7 +2686,7 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:24" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="7"/>
@@ -2544,7 +2712,7 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:24" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="7"/>
@@ -2570,7 +2738,7 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:24" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="7"/>
@@ -2596,7 +2764,7 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:24" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="7"/>
@@ -2622,7 +2790,7 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:24" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="7"/>
@@ -2648,7 +2816,7 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:24" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="7"/>
@@ -2674,7 +2842,7 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:24" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="7"/>
@@ -2700,7 +2868,7 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:24" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="7"/>
@@ -2726,7 +2894,7 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:24" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="7"/>
@@ -2752,7 +2920,7 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:24" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="7"/>
@@ -2778,7 +2946,7 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:24" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="7"/>
@@ -2804,7 +2972,7 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:24" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="7"/>
@@ -2830,7 +2998,7 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:24" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="7"/>
@@ -2856,7 +3024,7 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:24" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="7"/>
@@ -2882,7 +3050,7 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:24" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="7"/>
@@ -2908,7 +3076,7 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:24" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="7"/>
@@ -2934,7 +3102,7 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:24" ht="15.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="7"/>
@@ -2960,7 +3128,7 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:24" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="7"/>
@@ -2986,7 +3154,7 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:24" ht="15.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="7"/>
@@ -3012,7 +3180,7 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:24" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="7"/>
@@ -3038,7 +3206,7 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:24" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="7"/>
@@ -3064,7 +3232,7 @@
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:24" ht="15.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="7"/>
@@ -3090,7 +3258,7 @@
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:24" ht="15.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="7"/>
@@ -3116,7 +3284,7 @@
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:24" ht="15.75" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="7"/>
@@ -3142,7 +3310,7 @@
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:24" ht="15.75" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="7"/>
@@ -3168,7 +3336,7 @@
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:24" ht="15.75" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="7"/>
@@ -3194,7 +3362,7 @@
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:24" ht="15.75" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="7"/>
@@ -3220,7 +3388,7 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:24" ht="15.75" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="7"/>
@@ -3246,7 +3414,7 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:24" ht="15.75" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="7"/>
@@ -3272,7 +3440,7 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:24" ht="15.75" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="7"/>
@@ -3298,7 +3466,7 @@
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:24" ht="15.75" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="7"/>
@@ -3324,7 +3492,7 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:24" ht="15.75" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="7"/>
@@ -3350,7 +3518,7 @@
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:24" ht="15.75" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="7"/>
@@ -3376,7 +3544,7 @@
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:24" ht="15.75" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="7"/>
@@ -3402,7 +3570,7 @@
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:24" ht="15.75" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="7"/>
@@ -3428,7 +3596,7 @@
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:24" ht="15.75" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="7"/>
@@ -3454,7 +3622,7 @@
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:24" ht="15.75" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="7"/>
@@ -3480,7 +3648,7 @@
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:24" ht="15.75" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="7"/>
@@ -3506,7 +3674,7 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:24" ht="15.75" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="7"/>
@@ -3532,7 +3700,7 @@
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:24" ht="15.75" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="7"/>
@@ -3558,7 +3726,7 @@
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:24" ht="15.75" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="7"/>
@@ -3584,7 +3752,7 @@
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="7"/>
@@ -3610,7 +3778,7 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:24" ht="15.75" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="7"/>
@@ -3636,7 +3804,7 @@
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="7"/>
@@ -3662,7 +3830,7 @@
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:24" ht="15.75" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="7"/>
@@ -3688,7 +3856,7 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:24" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="7"/>
@@ -3714,7 +3882,7 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:24" ht="15.75" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="7"/>
@@ -3740,7 +3908,7 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:24" ht="15.75" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="7"/>
@@ -3766,7 +3934,7 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:24" ht="15.75" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="7"/>
@@ -3792,7 +3960,7 @@
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:24" ht="15.75" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="7"/>
@@ -3818,7 +3986,7 @@
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:24" ht="15.75" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="7"/>
@@ -3844,7 +4012,7 @@
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:24" ht="15.75" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="7"/>
@@ -3870,7 +4038,7 @@
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:24" ht="15.75" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="7"/>
@@ -3896,7 +4064,7 @@
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="7"/>
@@ -3922,7 +4090,7 @@
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:24" ht="15.75" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="7"/>
@@ -3948,7 +4116,7 @@
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:24" ht="15.75" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="7"/>
@@ -3974,7 +4142,7 @@
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:24" ht="15.75" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="7"/>
@@ -4000,7 +4168,7 @@
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:24" ht="15.75" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="7"/>
@@ -4026,7 +4194,7 @@
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:24" ht="15.75" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="7"/>
@@ -4052,7 +4220,7 @@
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:24" ht="15.75" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="7"/>
@@ -4078,7 +4246,7 @@
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:24" ht="15.75" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="7"/>
@@ -4104,7 +4272,7 @@
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:24" ht="15.75" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="7"/>
@@ -4130,7 +4298,7 @@
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:24" ht="15.75" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="7"/>
@@ -4156,7 +4324,7 @@
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:24" ht="15.75" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="7"/>
@@ -4182,7 +4350,7 @@
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:24" ht="15.75" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="7"/>
@@ -4208,7 +4376,7 @@
       <c r="W144" s="3"/>
       <c r="X144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:24" ht="15.75" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="7"/>
@@ -4234,7 +4402,7 @@
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:24" ht="15.75" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="7"/>
@@ -4260,7 +4428,7 @@
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:24" ht="15.75" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="7"/>
@@ -4286,7 +4454,7 @@
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:24" ht="15.75" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="7"/>
@@ -4312,7 +4480,7 @@
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:24" ht="15.75" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="7"/>
@@ -4338,7 +4506,7 @@
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:24" ht="15.75" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="7"/>
@@ -4364,7 +4532,7 @@
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:24" ht="15.75" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="7"/>
@@ -4390,7 +4558,7 @@
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:24" ht="15.75" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="7"/>
@@ -4416,7 +4584,7 @@
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:24" ht="15.75" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="7"/>
@@ -4442,7 +4610,7 @@
       <c r="W153" s="3"/>
       <c r="X153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:24" ht="15.75" customHeight="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="7"/>
@@ -4468,7 +4636,7 @@
       <c r="W154" s="3"/>
       <c r="X154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:24" ht="15.75" customHeight="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="7"/>
@@ -4494,7 +4662,7 @@
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:24" ht="15.75" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="7"/>
@@ -4520,7 +4688,7 @@
       <c r="W156" s="3"/>
       <c r="X156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:24" ht="15.75" customHeight="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="7"/>
@@ -4546,7 +4714,7 @@
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:24" ht="15.75" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="7"/>
@@ -4572,7 +4740,7 @@
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:24" ht="15.75" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="7"/>
@@ -4598,7 +4766,7 @@
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:24" ht="15.75" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="7"/>
@@ -4624,7 +4792,7 @@
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:24" ht="15.75" customHeight="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="7"/>
@@ -4650,7 +4818,7 @@
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:24" ht="15.75" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="7"/>
@@ -4676,7 +4844,7 @@
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:24" ht="15.75" customHeight="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="7"/>
@@ -4702,7 +4870,7 @@
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:24" ht="15.75" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="7"/>
@@ -4728,7 +4896,7 @@
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:24" ht="15.75" customHeight="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="7"/>
@@ -4754,7 +4922,7 @@
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:24" ht="15.75" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="7"/>
@@ -4780,7 +4948,7 @@
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:24" ht="15.75" customHeight="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="7"/>
@@ -4806,7 +4974,7 @@
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:24" ht="15.75" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="7"/>
@@ -4832,7 +5000,7 @@
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:24" ht="15.75" customHeight="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="7"/>
@@ -4858,7 +5026,7 @@
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:24" ht="15.75" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="7"/>
@@ -4884,7 +5052,7 @@
       <c r="W170" s="3"/>
       <c r="X170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:24" ht="15.75" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="7"/>
@@ -4910,7 +5078,7 @@
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:24" ht="15.75" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="7"/>
@@ -4936,7 +5104,7 @@
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:24" ht="15.75" customHeight="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="7"/>
@@ -4962,7 +5130,7 @@
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:24" ht="15.75" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="7"/>
@@ -4988,7 +5156,7 @@
       <c r="W174" s="3"/>
       <c r="X174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:24" ht="15.75" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="7"/>
@@ -5014,7 +5182,7 @@
       <c r="W175" s="3"/>
       <c r="X175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:24" ht="15.75" customHeight="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="7"/>
@@ -5040,7 +5208,7 @@
       <c r="W176" s="3"/>
       <c r="X176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:24" ht="15.75" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="7"/>
@@ -5066,7 +5234,7 @@
       <c r="W177" s="3"/>
       <c r="X177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:24" ht="15.75" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="7"/>
@@ -5092,7 +5260,7 @@
       <c r="W178" s="3"/>
       <c r="X178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:24" ht="15.75" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="7"/>
@@ -5118,7 +5286,7 @@
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:24" ht="15.75" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="7"/>
@@ -5144,7 +5312,7 @@
       <c r="W180" s="3"/>
       <c r="X180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:24" ht="15.75" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="7"/>
@@ -5170,7 +5338,7 @@
       <c r="W181" s="3"/>
       <c r="X181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:24" ht="15.75" customHeight="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="7"/>
@@ -5196,7 +5364,7 @@
       <c r="W182" s="3"/>
       <c r="X182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:24" ht="15.75" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="7"/>
@@ -5222,7 +5390,7 @@
       <c r="W183" s="3"/>
       <c r="X183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:24" ht="15.75" customHeight="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="7"/>
@@ -5248,7 +5416,7 @@
       <c r="W184" s="3"/>
       <c r="X184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:24" ht="15.75" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="7"/>
@@ -5274,7 +5442,7 @@
       <c r="W185" s="3"/>
       <c r="X185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:24" ht="15.75" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="7"/>
@@ -5300,7 +5468,7 @@
       <c r="W186" s="3"/>
       <c r="X186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:24" ht="15.75" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="7"/>
@@ -5326,7 +5494,7 @@
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:24" ht="15.75" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="7"/>
@@ -5352,7 +5520,7 @@
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:24" ht="15.75" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="7"/>
@@ -5378,7 +5546,7 @@
       <c r="W189" s="3"/>
       <c r="X189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:24" ht="15.75" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="7"/>
@@ -5404,7 +5572,7 @@
       <c r="W190" s="3"/>
       <c r="X190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:24" ht="15.75" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="7"/>
@@ -5430,7 +5598,7 @@
       <c r="W191" s="3"/>
       <c r="X191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:24" ht="15.75" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="7"/>
@@ -5456,7 +5624,7 @@
       <c r="W192" s="3"/>
       <c r="X192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:24" ht="15.75" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="7"/>
@@ -5482,7 +5650,7 @@
       <c r="W193" s="3"/>
       <c r="X193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:24" ht="15.75" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="7"/>
@@ -5508,7 +5676,7 @@
       <c r="W194" s="3"/>
       <c r="X194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:24" ht="15.75" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="7"/>
@@ -5534,7 +5702,7 @@
       <c r="W195" s="3"/>
       <c r="X195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:24" ht="15.75" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="7"/>
@@ -5560,7 +5728,7 @@
       <c r="W196" s="3"/>
       <c r="X196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:24" ht="15.75" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="7"/>
@@ -5586,7 +5754,7 @@
       <c r="W197" s="3"/>
       <c r="X197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:24" ht="15.75" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="7"/>
@@ -5612,7 +5780,7 @@
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:24" ht="15.75" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="7"/>
@@ -5638,7 +5806,7 @@
       <c r="W199" s="3"/>
       <c r="X199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:24" ht="15.75" customHeight="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="7"/>
@@ -5664,7 +5832,7 @@
       <c r="W200" s="3"/>
       <c r="X200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:24" ht="15.75" customHeight="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="7"/>
@@ -5690,7 +5858,7 @@
       <c r="W201" s="3"/>
       <c r="X201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:24" ht="15.75" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="7"/>
@@ -5716,7 +5884,7 @@
       <c r="W202" s="3"/>
       <c r="X202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:24" ht="15.75" customHeight="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="7"/>
@@ -5742,7 +5910,7 @@
       <c r="W203" s="3"/>
       <c r="X203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:24" ht="15.75" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="7"/>
@@ -5768,7 +5936,7 @@
       <c r="W204" s="3"/>
       <c r="X204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:24" ht="15.75" customHeight="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="7"/>
@@ -5794,7 +5962,7 @@
       <c r="W205" s="3"/>
       <c r="X205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:24" ht="15.75" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="7"/>
@@ -5820,7 +5988,7 @@
       <c r="W206" s="3"/>
       <c r="X206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:24" ht="15.75" customHeight="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="7"/>
@@ -5846,7 +6014,7 @@
       <c r="W207" s="3"/>
       <c r="X207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:24" ht="15.75" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="7"/>
@@ -5872,7 +6040,7 @@
       <c r="W208" s="3"/>
       <c r="X208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:24" ht="15.75" customHeight="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="7"/>
@@ -5898,7 +6066,7 @@
       <c r="W209" s="3"/>
       <c r="X209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:24" ht="15.75" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="7"/>
@@ -5924,7 +6092,7 @@
       <c r="W210" s="3"/>
       <c r="X210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:24" ht="15.75" customHeight="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="7"/>
@@ -5950,7 +6118,7 @@
       <c r="W211" s="3"/>
       <c r="X211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:24" ht="15.75" customHeight="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="7"/>
@@ -5976,7 +6144,7 @@
       <c r="W212" s="3"/>
       <c r="X212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:24" ht="15.75" customHeight="1">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="7"/>
@@ -6002,7 +6170,7 @@
       <c r="W213" s="3"/>
       <c r="X213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:24" ht="15.75" customHeight="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="7"/>
@@ -6028,7 +6196,7 @@
       <c r="W214" s="3"/>
       <c r="X214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:24" ht="15.75" customHeight="1">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="7"/>
@@ -6054,7 +6222,7 @@
       <c r="W215" s="3"/>
       <c r="X215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:24" ht="15.75" customHeight="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="7"/>
@@ -6080,7 +6248,7 @@
       <c r="W216" s="3"/>
       <c r="X216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:24" ht="15.75" customHeight="1">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="7"/>
@@ -6106,7 +6274,7 @@
       <c r="W217" s="3"/>
       <c r="X217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:24" ht="15.75" customHeight="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="7"/>
@@ -6132,7 +6300,7 @@
       <c r="W218" s="3"/>
       <c r="X218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:24" ht="15.75" customHeight="1">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="7"/>
@@ -6158,7 +6326,7 @@
       <c r="W219" s="3"/>
       <c r="X219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:24" ht="15.75" customHeight="1">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="7"/>
@@ -6184,7 +6352,7 @@
       <c r="W220" s="3"/>
       <c r="X220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:24" ht="15.75" customHeight="1">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="7"/>
@@ -6210,7 +6378,7 @@
       <c r="W221" s="3"/>
       <c r="X221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:24" ht="15.75" customHeight="1">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="7"/>
@@ -6236,7 +6404,7 @@
       <c r="W222" s="3"/>
       <c r="X222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:24" ht="15.75" customHeight="1">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="7"/>
@@ -6262,7 +6430,7 @@
       <c r="W223" s="3"/>
       <c r="X223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:24" ht="15.75" customHeight="1">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="7"/>
@@ -6288,7 +6456,7 @@
       <c r="W224" s="3"/>
       <c r="X224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:24" ht="15.75" customHeight="1">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="7"/>
@@ -6314,7 +6482,7 @@
       <c r="W225" s="3"/>
       <c r="X225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:24" ht="15.75" customHeight="1">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="7"/>
@@ -6340,7 +6508,7 @@
       <c r="W226" s="3"/>
       <c r="X226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:24" ht="15.75" customHeight="1">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="7"/>
@@ -6366,7 +6534,7 @@
       <c r="W227" s="3"/>
       <c r="X227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:24" ht="15.75" customHeight="1">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="7"/>
@@ -6392,7 +6560,7 @@
       <c r="W228" s="3"/>
       <c r="X228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:24" ht="15.75" customHeight="1">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="7"/>
@@ -6418,7 +6586,7 @@
       <c r="W229" s="3"/>
       <c r="X229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:24" ht="15.75" customHeight="1">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="7"/>
@@ -6444,7 +6612,7 @@
       <c r="W230" s="3"/>
       <c r="X230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:24" ht="15.75" customHeight="1">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="7"/>
@@ -6470,7 +6638,7 @@
       <c r="W231" s="3"/>
       <c r="X231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:24" ht="15.75" customHeight="1">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="7"/>
@@ -6496,7 +6664,7 @@
       <c r="W232" s="3"/>
       <c r="X232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:24" ht="15.75" customHeight="1">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="7"/>
@@ -6522,7 +6690,7 @@
       <c r="W233" s="3"/>
       <c r="X233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:24" ht="15.75" customHeight="1">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="7"/>
@@ -6548,7 +6716,7 @@
       <c r="W234" s="3"/>
       <c r="X234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:24" ht="15.75" customHeight="1">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="7"/>
@@ -6574,7 +6742,7 @@
       <c r="W235" s="3"/>
       <c r="X235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:24" ht="15.75" customHeight="1">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="7"/>
@@ -6600,7 +6768,7 @@
       <c r="W236" s="3"/>
       <c r="X236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:24" ht="15.75" customHeight="1">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="7"/>
@@ -6626,7 +6794,7 @@
       <c r="W237" s="3"/>
       <c r="X237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:24" ht="15.75" customHeight="1">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="7"/>
@@ -6652,7 +6820,7 @@
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:24" ht="15.75" customHeight="1">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="7"/>
@@ -6678,7 +6846,7 @@
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:24" ht="15.75" customHeight="1">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="7"/>
@@ -6704,7 +6872,7 @@
       <c r="W240" s="3"/>
       <c r="X240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:24" ht="15.75" customHeight="1">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="7"/>
@@ -6730,7 +6898,7 @@
       <c r="W241" s="3"/>
       <c r="X241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:24" ht="15.75" customHeight="1">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="7"/>
@@ -6756,7 +6924,7 @@
       <c r="W242" s="3"/>
       <c r="X242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:24" ht="15.75" customHeight="1">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="7"/>
@@ -6782,7 +6950,7 @@
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:24" ht="15.75" customHeight="1">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="7"/>
@@ -6808,7 +6976,7 @@
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:24" ht="15.75" customHeight="1">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="7"/>
@@ -6834,7 +7002,7 @@
       <c r="W245" s="3"/>
       <c r="X245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:24" ht="15.75" customHeight="1">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="7"/>
@@ -6860,7 +7028,7 @@
       <c r="W246" s="3"/>
       <c r="X246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:24" ht="15.75" customHeight="1">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="7"/>
@@ -6886,7 +7054,7 @@
       <c r="W247" s="3"/>
       <c r="X247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:24" ht="15.75" customHeight="1">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="7"/>
@@ -6912,7 +7080,7 @@
       <c r="W248" s="3"/>
       <c r="X248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:24" ht="15.75" customHeight="1">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="7"/>
@@ -6938,7 +7106,7 @@
       <c r="W249" s="3"/>
       <c r="X249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:24" ht="15.75" customHeight="1">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="7"/>
@@ -6964,7 +7132,7 @@
       <c r="W250" s="3"/>
       <c r="X250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:24" ht="15.75" customHeight="1">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="7"/>
@@ -6990,7 +7158,7 @@
       <c r="W251" s="3"/>
       <c r="X251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:24" ht="15.75" customHeight="1">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="7"/>
@@ -7016,7 +7184,7 @@
       <c r="W252" s="3"/>
       <c r="X252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:24" ht="15.75" customHeight="1">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="7"/>
@@ -7042,7 +7210,7 @@
       <c r="W253" s="3"/>
       <c r="X253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:24" ht="15.75" customHeight="1">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="7"/>
@@ -7068,7 +7236,7 @@
       <c r="W254" s="3"/>
       <c r="X254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:24" ht="15.75" customHeight="1">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="7"/>
@@ -7094,7 +7262,7 @@
       <c r="W255" s="3"/>
       <c r="X255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:24" ht="15.75" customHeight="1">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="7"/>
@@ -7120,7 +7288,7 @@
       <c r="W256" s="3"/>
       <c r="X256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:24" ht="15.75" customHeight="1">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="7"/>
@@ -7146,7 +7314,7 @@
       <c r="W257" s="3"/>
       <c r="X257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:24" ht="15.75" customHeight="1">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="7"/>
@@ -7172,7 +7340,7 @@
       <c r="W258" s="3"/>
       <c r="X258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:24" ht="15.75" customHeight="1">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="7"/>
@@ -7198,7 +7366,7 @@
       <c r="W259" s="3"/>
       <c r="X259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:24" ht="15.75" customHeight="1">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="7"/>
@@ -7224,7 +7392,7 @@
       <c r="W260" s="3"/>
       <c r="X260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:24" ht="15.75" customHeight="1">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="7"/>
@@ -7250,7 +7418,7 @@
       <c r="W261" s="3"/>
       <c r="X261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:24" ht="15.75" customHeight="1">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="7"/>
@@ -7276,7 +7444,7 @@
       <c r="W262" s="3"/>
       <c r="X262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:24" ht="15.75" customHeight="1">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="7"/>
@@ -7302,7 +7470,7 @@
       <c r="W263" s="3"/>
       <c r="X263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:24" ht="15.75" customHeight="1">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="7"/>
@@ -7328,7 +7496,7 @@
       <c r="W264" s="3"/>
       <c r="X264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:24" ht="15.75" customHeight="1">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="7"/>
@@ -7354,7 +7522,7 @@
       <c r="W265" s="3"/>
       <c r="X265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:24" ht="15.75" customHeight="1">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="7"/>
@@ -7380,7 +7548,7 @@
       <c r="W266" s="3"/>
       <c r="X266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:24" ht="15.75" customHeight="1">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="7"/>
@@ -7406,7 +7574,7 @@
       <c r="W267" s="3"/>
       <c r="X267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:24" ht="15.75" customHeight="1">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="7"/>
@@ -7432,7 +7600,7 @@
       <c r="W268" s="3"/>
       <c r="X268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:24" ht="15.75" customHeight="1">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="7"/>
@@ -7458,7 +7626,7 @@
       <c r="W269" s="3"/>
       <c r="X269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:24" ht="15.75" customHeight="1">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="7"/>
@@ -7484,7 +7652,7 @@
       <c r="W270" s="3"/>
       <c r="X270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:24" ht="15.75" customHeight="1">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="7"/>
@@ -7510,7 +7678,7 @@
       <c r="W271" s="3"/>
       <c r="X271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:24" ht="15.75" customHeight="1">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="7"/>
@@ -7536,7 +7704,7 @@
       <c r="W272" s="3"/>
       <c r="X272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:24" ht="15.75" customHeight="1">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="7"/>
@@ -7562,7 +7730,7 @@
       <c r="W273" s="3"/>
       <c r="X273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:24" ht="15.75" customHeight="1">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="7"/>
@@ -7588,7 +7756,7 @@
       <c r="W274" s="3"/>
       <c r="X274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:24" ht="15.75" customHeight="1">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="7"/>
@@ -7614,7 +7782,7 @@
       <c r="W275" s="3"/>
       <c r="X275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:24" ht="15.75" customHeight="1">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="7"/>
@@ -7640,7 +7808,7 @@
       <c r="W276" s="3"/>
       <c r="X276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:24" ht="15.75" customHeight="1">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="7"/>
@@ -7666,7 +7834,7 @@
       <c r="W277" s="3"/>
       <c r="X277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:24" ht="15.75" customHeight="1">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="7"/>
@@ -7692,7 +7860,7 @@
       <c r="W278" s="3"/>
       <c r="X278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:24" ht="15.75" customHeight="1">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="7"/>
@@ -7718,7 +7886,7 @@
       <c r="W279" s="3"/>
       <c r="X279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:24" ht="15.75" customHeight="1">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="7"/>
@@ -7744,7 +7912,7 @@
       <c r="W280" s="3"/>
       <c r="X280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:24" ht="15.75" customHeight="1">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="7"/>
@@ -7770,7 +7938,7 @@
       <c r="W281" s="3"/>
       <c r="X281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:24" ht="15.75" customHeight="1">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="7"/>
@@ -7796,7 +7964,7 @@
       <c r="W282" s="3"/>
       <c r="X282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:24" ht="15.75" customHeight="1">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="7"/>
@@ -7822,7 +7990,7 @@
       <c r="W283" s="3"/>
       <c r="X283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:24" ht="15.75" customHeight="1">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="7"/>
@@ -7848,7 +8016,7 @@
       <c r="W284" s="3"/>
       <c r="X284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:24" ht="15.75" customHeight="1">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="7"/>
@@ -7874,7 +8042,7 @@
       <c r="W285" s="3"/>
       <c r="X285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:24" ht="15.75" customHeight="1">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="7"/>
@@ -7900,7 +8068,7 @@
       <c r="W286" s="3"/>
       <c r="X286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:24" ht="15.75" customHeight="1">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="7"/>
@@ -7926,7 +8094,7 @@
       <c r="W287" s="3"/>
       <c r="X287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:24" ht="15.75" customHeight="1">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="7"/>
@@ -7952,7 +8120,7 @@
       <c r="W288" s="3"/>
       <c r="X288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:24" ht="15.75" customHeight="1">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="7"/>
@@ -7978,7 +8146,7 @@
       <c r="W289" s="3"/>
       <c r="X289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:24" ht="15.75" customHeight="1">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="7"/>
@@ -8004,7 +8172,7 @@
       <c r="W290" s="3"/>
       <c r="X290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:24" ht="15.75" customHeight="1">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="7"/>
@@ -8030,7 +8198,7 @@
       <c r="W291" s="3"/>
       <c r="X291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:24" ht="15.75" customHeight="1">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="7"/>
@@ -8056,7 +8224,7 @@
       <c r="W292" s="3"/>
       <c r="X292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:24" ht="15.75" customHeight="1">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="7"/>
@@ -8082,7 +8250,7 @@
       <c r="W293" s="3"/>
       <c r="X293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:24" ht="15.75" customHeight="1">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="7"/>
@@ -8108,7 +8276,7 @@
       <c r="W294" s="3"/>
       <c r="X294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:24" ht="15.75" customHeight="1">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="7"/>
@@ -8134,7 +8302,7 @@
       <c r="W295" s="3"/>
       <c r="X295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:24" ht="15.75" customHeight="1">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="7"/>
@@ -8160,7 +8328,7 @@
       <c r="W296" s="3"/>
       <c r="X296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:24" ht="15.75" customHeight="1">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="7"/>
@@ -8186,7 +8354,7 @@
       <c r="W297" s="3"/>
       <c r="X297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:24" ht="15.75" customHeight="1">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="7"/>
@@ -8212,7 +8380,7 @@
       <c r="W298" s="3"/>
       <c r="X298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:24" ht="15.75" customHeight="1">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="7"/>
@@ -8238,7 +8406,7 @@
       <c r="W299" s="3"/>
       <c r="X299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:24" ht="15.75" customHeight="1">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="7"/>
@@ -8264,7 +8432,7 @@
       <c r="W300" s="3"/>
       <c r="X300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:24" ht="15.75" customHeight="1">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="7"/>
@@ -8290,7 +8458,7 @@
       <c r="W301" s="3"/>
       <c r="X301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:24" ht="15.75" customHeight="1">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="7"/>
@@ -8316,7 +8484,7 @@
       <c r="W302" s="3"/>
       <c r="X302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:24" ht="15.75" customHeight="1">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="7"/>
@@ -8342,7 +8510,7 @@
       <c r="W303" s="3"/>
       <c r="X303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:24" ht="15.75" customHeight="1">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="7"/>
@@ -8368,7 +8536,7 @@
       <c r="W304" s="3"/>
       <c r="X304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:24" ht="15.75" customHeight="1">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="7"/>
@@ -8394,7 +8562,7 @@
       <c r="W305" s="3"/>
       <c r="X305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:24" ht="15.75" customHeight="1">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="7"/>
@@ -8420,7 +8588,7 @@
       <c r="W306" s="3"/>
       <c r="X306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:24" ht="15.75" customHeight="1">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="7"/>
@@ -8446,7 +8614,7 @@
       <c r="W307" s="3"/>
       <c r="X307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:24" ht="15.75" customHeight="1">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="7"/>
@@ -8472,7 +8640,7 @@
       <c r="W308" s="3"/>
       <c r="X308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:24" ht="15.75" customHeight="1">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="7"/>
@@ -8498,7 +8666,7 @@
       <c r="W309" s="3"/>
       <c r="X309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:24" ht="15.75" customHeight="1">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="7"/>
@@ -8524,7 +8692,7 @@
       <c r="W310" s="3"/>
       <c r="X310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:24" ht="15.75" customHeight="1">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="7"/>
@@ -8550,7 +8718,7 @@
       <c r="W311" s="3"/>
       <c r="X311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:24" ht="15.75" customHeight="1">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="7"/>
@@ -8576,7 +8744,7 @@
       <c r="W312" s="3"/>
       <c r="X312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:24" ht="15.75" customHeight="1">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="7"/>
@@ -8602,7 +8770,7 @@
       <c r="W313" s="3"/>
       <c r="X313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:24" ht="15.75" customHeight="1">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="7"/>
@@ -8628,7 +8796,7 @@
       <c r="W314" s="3"/>
       <c r="X314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:24" ht="15.75" customHeight="1">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="7"/>
@@ -8654,7 +8822,7 @@
       <c r="W315" s="3"/>
       <c r="X315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:24" ht="15.75" customHeight="1">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="7"/>
@@ -8680,7 +8848,7 @@
       <c r="W316" s="3"/>
       <c r="X316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:24" ht="15.75" customHeight="1">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="7"/>
@@ -8706,7 +8874,7 @@
       <c r="W317" s="3"/>
       <c r="X317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:24" ht="15.75" customHeight="1">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="7"/>
@@ -8732,7 +8900,7 @@
       <c r="W318" s="3"/>
       <c r="X318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:24" ht="15.75" customHeight="1">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="7"/>
@@ -8758,7 +8926,7 @@
       <c r="W319" s="3"/>
       <c r="X319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:24" ht="15.75" customHeight="1">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="7"/>
@@ -8784,7 +8952,7 @@
       <c r="W320" s="3"/>
       <c r="X320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:24" ht="15.75" customHeight="1">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="7"/>
@@ -8810,7 +8978,7 @@
       <c r="W321" s="3"/>
       <c r="X321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:24" ht="15.75" customHeight="1">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="7"/>
@@ -8836,7 +9004,7 @@
       <c r="W322" s="3"/>
       <c r="X322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:24" ht="15.75" customHeight="1">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="7"/>
@@ -8862,7 +9030,7 @@
       <c r="W323" s="3"/>
       <c r="X323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:24" ht="15.75" customHeight="1">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="7"/>
@@ -8888,7 +9056,7 @@
       <c r="W324" s="3"/>
       <c r="X324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:24" ht="15.75" customHeight="1">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="7"/>
@@ -8914,7 +9082,7 @@
       <c r="W325" s="3"/>
       <c r="X325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:24" ht="15.75" customHeight="1">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="7"/>
@@ -8940,7 +9108,7 @@
       <c r="W326" s="3"/>
       <c r="X326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:24" ht="15.75" customHeight="1">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="7"/>
@@ -8966,7 +9134,7 @@
       <c r="W327" s="3"/>
       <c r="X327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:24" ht="15.75" customHeight="1">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="7"/>
@@ -8992,7 +9160,7 @@
       <c r="W328" s="3"/>
       <c r="X328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:24" ht="15.75" customHeight="1">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="7"/>
@@ -9018,7 +9186,7 @@
       <c r="W329" s="3"/>
       <c r="X329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:24" ht="15.75" customHeight="1">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="7"/>
@@ -9044,7 +9212,7 @@
       <c r="W330" s="3"/>
       <c r="X330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:24" ht="15.75" customHeight="1">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="7"/>
@@ -9070,7 +9238,7 @@
       <c r="W331" s="3"/>
       <c r="X331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:24" ht="15.75" customHeight="1">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="7"/>
@@ -9096,7 +9264,7 @@
       <c r="W332" s="3"/>
       <c r="X332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:24" ht="15.75" customHeight="1">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="7"/>
@@ -9122,7 +9290,7 @@
       <c r="W333" s="3"/>
       <c r="X333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:24" ht="15.75" customHeight="1">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="7"/>
@@ -9148,7 +9316,7 @@
       <c r="W334" s="3"/>
       <c r="X334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:24" ht="15.75" customHeight="1">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="7"/>
@@ -9174,7 +9342,7 @@
       <c r="W335" s="3"/>
       <c r="X335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:24" ht="15.75" customHeight="1">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="7"/>
@@ -9200,7 +9368,7 @@
       <c r="W336" s="3"/>
       <c r="X336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:24" ht="15.75" customHeight="1">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="7"/>
@@ -9226,7 +9394,7 @@
       <c r="W337" s="3"/>
       <c r="X337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:24" ht="15.75" customHeight="1">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="7"/>
@@ -9252,7 +9420,7 @@
       <c r="W338" s="3"/>
       <c r="X338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:24" ht="15.75" customHeight="1">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="7"/>
@@ -9278,7 +9446,7 @@
       <c r="W339" s="3"/>
       <c r="X339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:24" ht="15.75" customHeight="1">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="7"/>
@@ -9304,7 +9472,7 @@
       <c r="W340" s="3"/>
       <c r="X340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:24" ht="15.75" customHeight="1">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="7"/>
@@ -9330,7 +9498,7 @@
       <c r="W341" s="3"/>
       <c r="X341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:24" ht="15.75" customHeight="1">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="7"/>
@@ -9356,7 +9524,7 @@
       <c r="W342" s="3"/>
       <c r="X342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:24" ht="15.75" customHeight="1">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="7"/>
@@ -9382,7 +9550,7 @@
       <c r="W343" s="3"/>
       <c r="X343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:24" ht="15.75" customHeight="1">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="7"/>
@@ -9408,7 +9576,7 @@
       <c r="W344" s="3"/>
       <c r="X344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:24" ht="15.75" customHeight="1">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="7"/>
@@ -9434,7 +9602,7 @@
       <c r="W345" s="3"/>
       <c r="X345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:24" ht="15.75" customHeight="1">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="7"/>
@@ -9460,7 +9628,7 @@
       <c r="W346" s="3"/>
       <c r="X346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:24" ht="15.75" customHeight="1">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="7"/>
@@ -9486,7 +9654,7 @@
       <c r="W347" s="3"/>
       <c r="X347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:24" ht="15.75" customHeight="1">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="7"/>
@@ -9512,7 +9680,7 @@
       <c r="W348" s="3"/>
       <c r="X348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:24" ht="15.75" customHeight="1">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="7"/>
@@ -9538,7 +9706,7 @@
       <c r="W349" s="3"/>
       <c r="X349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:24" ht="15.75" customHeight="1">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="7"/>
@@ -9564,7 +9732,7 @@
       <c r="W350" s="3"/>
       <c r="X350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:24" ht="15.75" customHeight="1">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="7"/>
@@ -9590,7 +9758,7 @@
       <c r="W351" s="3"/>
       <c r="X351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:24" ht="15.75" customHeight="1">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="7"/>
@@ -9616,7 +9784,7 @@
       <c r="W352" s="3"/>
       <c r="X352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:24" ht="15.75" customHeight="1">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="7"/>
@@ -9642,7 +9810,7 @@
       <c r="W353" s="3"/>
       <c r="X353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:24" ht="15.75" customHeight="1">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="7"/>
@@ -9668,7 +9836,7 @@
       <c r="W354" s="3"/>
       <c r="X354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:24" ht="15.75" customHeight="1">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="7"/>
@@ -9694,7 +9862,7 @@
       <c r="W355" s="3"/>
       <c r="X355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:24" ht="15.75" customHeight="1">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="7"/>
@@ -9720,7 +9888,7 @@
       <c r="W356" s="3"/>
       <c r="X356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:24" ht="15.75" customHeight="1">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="7"/>
@@ -9746,7 +9914,7 @@
       <c r="W357" s="3"/>
       <c r="X357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:24" ht="15.75" customHeight="1">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="7"/>
@@ -9772,7 +9940,7 @@
       <c r="W358" s="3"/>
       <c r="X358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:24" ht="15.75" customHeight="1">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="7"/>
@@ -9798,7 +9966,7 @@
       <c r="W359" s="3"/>
       <c r="X359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:24" ht="15.75" customHeight="1">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="7"/>
@@ -9824,7 +9992,7 @@
       <c r="W360" s="3"/>
       <c r="X360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:24" ht="15.75" customHeight="1">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="7"/>
@@ -9850,7 +10018,7 @@
       <c r="W361" s="3"/>
       <c r="X361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:24" ht="15.75" customHeight="1">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="7"/>
@@ -9876,7 +10044,7 @@
       <c r="W362" s="3"/>
       <c r="X362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:24" ht="15.75" customHeight="1">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="7"/>
@@ -9902,7 +10070,7 @@
       <c r="W363" s="3"/>
       <c r="X363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:24" ht="15.75" customHeight="1">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="7"/>
@@ -9928,7 +10096,7 @@
       <c r="W364" s="3"/>
       <c r="X364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:24" ht="15.75" customHeight="1">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="7"/>
@@ -9954,7 +10122,7 @@
       <c r="W365" s="3"/>
       <c r="X365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:24" ht="15.75" customHeight="1">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="7"/>
@@ -9980,7 +10148,7 @@
       <c r="W366" s="3"/>
       <c r="X366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:24" ht="15.75" customHeight="1">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="7"/>
@@ -10006,7 +10174,7 @@
       <c r="W367" s="3"/>
       <c r="X367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:24" ht="15.75" customHeight="1">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="7"/>
@@ -10032,7 +10200,7 @@
       <c r="W368" s="3"/>
       <c r="X368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:24" ht="15.75" customHeight="1">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="7"/>
@@ -10058,7 +10226,7 @@
       <c r="W369" s="3"/>
       <c r="X369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:24" ht="15.75" customHeight="1">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="7"/>
@@ -10084,7 +10252,7 @@
       <c r="W370" s="3"/>
       <c r="X370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:24" ht="15.75" customHeight="1">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="7"/>
@@ -10110,7 +10278,7 @@
       <c r="W371" s="3"/>
       <c r="X371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:24" ht="15.75" customHeight="1">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="7"/>
@@ -10136,7 +10304,7 @@
       <c r="W372" s="3"/>
       <c r="X372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:24" ht="15.75" customHeight="1">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="7"/>
@@ -10162,7 +10330,7 @@
       <c r="W373" s="3"/>
       <c r="X373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:24" ht="15.75" customHeight="1">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="7"/>
@@ -10188,7 +10356,7 @@
       <c r="W374" s="3"/>
       <c r="X374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:24" ht="15.75" customHeight="1">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="7"/>
@@ -10214,7 +10382,7 @@
       <c r="W375" s="3"/>
       <c r="X375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:24" ht="15.75" customHeight="1">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="7"/>
@@ -10240,7 +10408,7 @@
       <c r="W376" s="3"/>
       <c r="X376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:24" ht="15.75" customHeight="1">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="7"/>
@@ -10266,7 +10434,7 @@
       <c r="W377" s="3"/>
       <c r="X377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:24" ht="15.75" customHeight="1">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="7"/>
@@ -10292,7 +10460,7 @@
       <c r="W378" s="3"/>
       <c r="X378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:24" ht="15.75" customHeight="1">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="7"/>
@@ -10318,7 +10486,7 @@
       <c r="W379" s="3"/>
       <c r="X379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:24" ht="15.75" customHeight="1">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="7"/>
@@ -10344,7 +10512,7 @@
       <c r="W380" s="3"/>
       <c r="X380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:24" ht="15.75" customHeight="1">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="7"/>
@@ -10370,7 +10538,7 @@
       <c r="W381" s="3"/>
       <c r="X381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:24" ht="15.75" customHeight="1">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="7"/>
@@ -10396,7 +10564,7 @@
       <c r="W382" s="3"/>
       <c r="X382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:24" ht="15.75" customHeight="1">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="7"/>
@@ -10422,7 +10590,7 @@
       <c r="W383" s="3"/>
       <c r="X383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:24" ht="15.75" customHeight="1">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="7"/>
@@ -10448,7 +10616,7 @@
       <c r="W384" s="3"/>
       <c r="X384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:24" ht="15.75" customHeight="1">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="7"/>
@@ -10474,7 +10642,7 @@
       <c r="W385" s="3"/>
       <c r="X385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:24" ht="15.75" customHeight="1">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="7"/>
@@ -10500,7 +10668,7 @@
       <c r="W386" s="3"/>
       <c r="X386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:24" ht="15.75" customHeight="1">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="7"/>
@@ -10526,7 +10694,7 @@
       <c r="W387" s="3"/>
       <c r="X387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:24" ht="15.75" customHeight="1">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="7"/>
@@ -10552,7 +10720,7 @@
       <c r="W388" s="3"/>
       <c r="X388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:24" ht="15.75" customHeight="1">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="7"/>
@@ -10578,7 +10746,7 @@
       <c r="W389" s="3"/>
       <c r="X389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:24" ht="15.75" customHeight="1">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="7"/>
@@ -10604,7 +10772,7 @@
       <c r="W390" s="3"/>
       <c r="X390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:24" ht="15.75" customHeight="1">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="7"/>
@@ -10630,7 +10798,7 @@
       <c r="W391" s="3"/>
       <c r="X391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:24" ht="15.75" customHeight="1">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="7"/>
@@ -10656,7 +10824,7 @@
       <c r="W392" s="3"/>
       <c r="X392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:24" ht="15.75" customHeight="1">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="7"/>
@@ -10682,7 +10850,7 @@
       <c r="W393" s="3"/>
       <c r="X393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:24" ht="15.75" customHeight="1">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="7"/>
@@ -10708,7 +10876,7 @@
       <c r="W394" s="3"/>
       <c r="X394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:24" ht="15.75" customHeight="1">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="7"/>
@@ -10734,7 +10902,7 @@
       <c r="W395" s="3"/>
       <c r="X395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:24" ht="15.75" customHeight="1">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="7"/>
@@ -10760,7 +10928,7 @@
       <c r="W396" s="3"/>
       <c r="X396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:24" ht="15.75" customHeight="1">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="7"/>
@@ -10786,7 +10954,7 @@
       <c r="W397" s="3"/>
       <c r="X397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:24" ht="15.75" customHeight="1">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="7"/>
@@ -10812,7 +10980,7 @@
       <c r="W398" s="3"/>
       <c r="X398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:24" ht="15.75" customHeight="1">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="7"/>
@@ -10838,7 +11006,7 @@
       <c r="W399" s="3"/>
       <c r="X399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:24" ht="15.75" customHeight="1">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="7"/>
@@ -10864,7 +11032,7 @@
       <c r="W400" s="3"/>
       <c r="X400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:24" ht="15.75" customHeight="1">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="7"/>
@@ -10890,7 +11058,7 @@
       <c r="W401" s="3"/>
       <c r="X401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:24" ht="15.75" customHeight="1">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="7"/>
@@ -10916,7 +11084,7 @@
       <c r="W402" s="3"/>
       <c r="X402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:24" ht="15.75" customHeight="1">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="7"/>
@@ -10942,7 +11110,7 @@
       <c r="W403" s="3"/>
       <c r="X403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:24" ht="15.75" customHeight="1">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="7"/>
@@ -10968,7 +11136,7 @@
       <c r="W404" s="3"/>
       <c r="X404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:24" ht="15.75" customHeight="1">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="7"/>
@@ -10994,7 +11162,7 @@
       <c r="W405" s="3"/>
       <c r="X405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:24" ht="15.75" customHeight="1">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="7"/>
@@ -11020,7 +11188,7 @@
       <c r="W406" s="3"/>
       <c r="X406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:24" ht="15.75" customHeight="1">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="7"/>
@@ -11046,7 +11214,7 @@
       <c r="W407" s="3"/>
       <c r="X407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:24" ht="15.75" customHeight="1">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="7"/>
@@ -11072,7 +11240,7 @@
       <c r="W408" s="3"/>
       <c r="X408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:24" ht="15.75" customHeight="1">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="7"/>
@@ -11098,7 +11266,7 @@
       <c r="W409" s="3"/>
       <c r="X409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:24" ht="15.75" customHeight="1">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="7"/>
@@ -11124,7 +11292,7 @@
       <c r="W410" s="3"/>
       <c r="X410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:24" ht="15.75" customHeight="1">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="7"/>
@@ -11150,7 +11318,7 @@
       <c r="W411" s="3"/>
       <c r="X411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:24" ht="15.75" customHeight="1">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="7"/>
@@ -11176,7 +11344,7 @@
       <c r="W412" s="3"/>
       <c r="X412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:24" ht="15.75" customHeight="1">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="7"/>
@@ -11202,7 +11370,7 @@
       <c r="W413" s="3"/>
       <c r="X413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:24" ht="15.75" customHeight="1">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="7"/>
@@ -11228,7 +11396,7 @@
       <c r="W414" s="3"/>
       <c r="X414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:24" ht="15.75" customHeight="1">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="7"/>
@@ -11254,7 +11422,7 @@
       <c r="W415" s="3"/>
       <c r="X415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:24" ht="15.75" customHeight="1">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="7"/>
@@ -11280,7 +11448,7 @@
       <c r="W416" s="3"/>
       <c r="X416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:24" ht="15.75" customHeight="1">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="7"/>
@@ -11306,7 +11474,7 @@
       <c r="W417" s="3"/>
       <c r="X417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:24" ht="15.75" customHeight="1">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="7"/>
@@ -11332,7 +11500,7 @@
       <c r="W418" s="3"/>
       <c r="X418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:24" ht="15.75" customHeight="1">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="7"/>
@@ -11358,7 +11526,7 @@
       <c r="W419" s="3"/>
       <c r="X419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:24" ht="15.75" customHeight="1">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="7"/>
@@ -11384,7 +11552,7 @@
       <c r="W420" s="3"/>
       <c r="X420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:24" ht="15.75" customHeight="1">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="7"/>
@@ -11410,7 +11578,7 @@
       <c r="W421" s="3"/>
       <c r="X421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:24" ht="15.75" customHeight="1">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="7"/>
@@ -11436,7 +11604,7 @@
       <c r="W422" s="3"/>
       <c r="X422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:24" ht="15.75" customHeight="1">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="7"/>
@@ -11462,7 +11630,7 @@
       <c r="W423" s="3"/>
       <c r="X423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:24" ht="15.75" customHeight="1">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="7"/>
@@ -11488,7 +11656,7 @@
       <c r="W424" s="3"/>
       <c r="X424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:24" ht="15.75" customHeight="1">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="7"/>
@@ -11514,7 +11682,7 @@
       <c r="W425" s="3"/>
       <c r="X425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:24" ht="15.75" customHeight="1">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="7"/>
@@ -11540,7 +11708,7 @@
       <c r="W426" s="3"/>
       <c r="X426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:24" ht="15.75" customHeight="1">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="7"/>
@@ -11566,7 +11734,7 @@
       <c r="W427" s="3"/>
       <c r="X427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:24" ht="15.75" customHeight="1">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="7"/>
@@ -11592,7 +11760,7 @@
       <c r="W428" s="3"/>
       <c r="X428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:24" ht="15.75" customHeight="1">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="7"/>
@@ -11618,7 +11786,7 @@
       <c r="W429" s="3"/>
       <c r="X429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:24" ht="15.75" customHeight="1">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="7"/>
@@ -11644,7 +11812,7 @@
       <c r="W430" s="3"/>
       <c r="X430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:24" ht="15.75" customHeight="1">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="7"/>
@@ -11670,7 +11838,7 @@
       <c r="W431" s="3"/>
       <c r="X431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:24" ht="15.75" customHeight="1">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="7"/>
@@ -11696,7 +11864,7 @@
       <c r="W432" s="3"/>
       <c r="X432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:24" ht="15.75" customHeight="1">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="7"/>
@@ -11722,7 +11890,7 @@
       <c r="W433" s="3"/>
       <c r="X433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:24" ht="15.75" customHeight="1">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="7"/>
@@ -11748,7 +11916,7 @@
       <c r="W434" s="3"/>
       <c r="X434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:24" ht="15.75" customHeight="1">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="7"/>
@@ -11774,7 +11942,7 @@
       <c r="W435" s="3"/>
       <c r="X435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:24" ht="15.75" customHeight="1">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="7"/>
@@ -11800,7 +11968,7 @@
       <c r="W436" s="3"/>
       <c r="X436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:24" ht="15.75" customHeight="1">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="7"/>
@@ -11826,7 +11994,7 @@
       <c r="W437" s="3"/>
       <c r="X437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:24" ht="15.75" customHeight="1">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="7"/>
@@ -11852,7 +12020,7 @@
       <c r="W438" s="3"/>
       <c r="X438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:24" ht="15.75" customHeight="1">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="7"/>
@@ -11878,7 +12046,7 @@
       <c r="W439" s="3"/>
       <c r="X439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:24" ht="15.75" customHeight="1">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="7"/>
@@ -11904,7 +12072,7 @@
       <c r="W440" s="3"/>
       <c r="X440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:24" ht="15.75" customHeight="1">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="7"/>
@@ -11930,7 +12098,7 @@
       <c r="W441" s="3"/>
       <c r="X441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:24" ht="15.75" customHeight="1">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="7"/>
@@ -11956,7 +12124,7 @@
       <c r="W442" s="3"/>
       <c r="X442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:24" ht="15.75" customHeight="1">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="7"/>
@@ -11982,7 +12150,7 @@
       <c r="W443" s="3"/>
       <c r="X443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:24" ht="15.75" customHeight="1">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="7"/>
@@ -12008,7 +12176,7 @@
       <c r="W444" s="3"/>
       <c r="X444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:24" ht="15.75" customHeight="1">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="7"/>
@@ -12034,7 +12202,7 @@
       <c r="W445" s="3"/>
       <c r="X445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:24" ht="15.75" customHeight="1">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="7"/>
@@ -12060,7 +12228,7 @@
       <c r="W446" s="3"/>
       <c r="X446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:24" ht="15.75" customHeight="1">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="7"/>
@@ -12086,7 +12254,7 @@
       <c r="W447" s="3"/>
       <c r="X447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:24" ht="15.75" customHeight="1">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="7"/>
@@ -12112,7 +12280,7 @@
       <c r="W448" s="3"/>
       <c r="X448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:24" ht="15.75" customHeight="1">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="7"/>
@@ -12138,7 +12306,7 @@
       <c r="W449" s="3"/>
       <c r="X449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:24" ht="15.75" customHeight="1">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="7"/>
@@ -12164,7 +12332,7 @@
       <c r="W450" s="3"/>
       <c r="X450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:24" ht="15.75" customHeight="1">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="7"/>
@@ -12190,7 +12358,7 @@
       <c r="W451" s="3"/>
       <c r="X451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:24" ht="15.75" customHeight="1">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="7"/>
@@ -12216,7 +12384,7 @@
       <c r="W452" s="3"/>
       <c r="X452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:24" ht="15.75" customHeight="1">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="7"/>
@@ -12242,7 +12410,7 @@
       <c r="W453" s="3"/>
       <c r="X453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:24" ht="15.75" customHeight="1">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="7"/>
@@ -12268,7 +12436,7 @@
       <c r="W454" s="3"/>
       <c r="X454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:24" ht="15.75" customHeight="1">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="7"/>
@@ -12294,7 +12462,7 @@
       <c r="W455" s="3"/>
       <c r="X455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:24" ht="15.75" customHeight="1">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="7"/>
@@ -12320,7 +12488,7 @@
       <c r="W456" s="3"/>
       <c r="X456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:24" ht="15.75" customHeight="1">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="7"/>
@@ -12346,7 +12514,7 @@
       <c r="W457" s="3"/>
       <c r="X457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:24" ht="15.75" customHeight="1">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="7"/>
@@ -12372,7 +12540,7 @@
       <c r="W458" s="3"/>
       <c r="X458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:24" ht="15.75" customHeight="1">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="7"/>
@@ -12398,7 +12566,7 @@
       <c r="W459" s="3"/>
       <c r="X459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:24" ht="15.75" customHeight="1">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="7"/>
@@ -12424,7 +12592,7 @@
       <c r="W460" s="3"/>
       <c r="X460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:24" ht="15.75" customHeight="1">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="7"/>
@@ -12450,7 +12618,7 @@
       <c r="W461" s="3"/>
       <c r="X461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:24" ht="15.75" customHeight="1">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="7"/>
@@ -12476,7 +12644,7 @@
       <c r="W462" s="3"/>
       <c r="X462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:24" ht="15.75" customHeight="1">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="7"/>
@@ -12502,7 +12670,7 @@
       <c r="W463" s="3"/>
       <c r="X463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:24" ht="15.75" customHeight="1">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="7"/>
@@ -12528,7 +12696,7 @@
       <c r="W464" s="3"/>
       <c r="X464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:24" ht="15.75" customHeight="1">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="7"/>
@@ -12554,7 +12722,7 @@
       <c r="W465" s="3"/>
       <c r="X465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:24" ht="15.75" customHeight="1">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="7"/>
@@ -12580,7 +12748,7 @@
       <c r="W466" s="3"/>
       <c r="X466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:24" ht="15.75" customHeight="1">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="7"/>
@@ -12606,7 +12774,7 @@
       <c r="W467" s="3"/>
       <c r="X467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:24" ht="15.75" customHeight="1">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="7"/>
@@ -12632,7 +12800,7 @@
       <c r="W468" s="3"/>
       <c r="X468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:24" ht="15.75" customHeight="1">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="7"/>
@@ -12658,7 +12826,7 @@
       <c r="W469" s="3"/>
       <c r="X469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:24" ht="15.75" customHeight="1">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="7"/>
@@ -12684,7 +12852,7 @@
       <c r="W470" s="3"/>
       <c r="X470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:24" ht="15.75" customHeight="1">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="7"/>
@@ -12710,7 +12878,7 @@
       <c r="W471" s="3"/>
       <c r="X471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:24" ht="15.75" customHeight="1">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="7"/>
@@ -12736,7 +12904,7 @@
       <c r="W472" s="3"/>
       <c r="X472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:24" ht="15.75" customHeight="1">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="7"/>
@@ -12762,7 +12930,7 @@
       <c r="W473" s="3"/>
       <c r="X473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:24" ht="15.75" customHeight="1">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="7"/>
@@ -12788,7 +12956,7 @@
       <c r="W474" s="3"/>
       <c r="X474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:24" ht="15.75" customHeight="1">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="7"/>
@@ -12814,7 +12982,7 @@
       <c r="W475" s="3"/>
       <c r="X475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:24" ht="15.75" customHeight="1">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="7"/>
@@ -12840,7 +13008,7 @@
       <c r="W476" s="3"/>
       <c r="X476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:24" ht="15.75" customHeight="1">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="7"/>
@@ -12866,7 +13034,7 @@
       <c r="W477" s="3"/>
       <c r="X477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:24" ht="15.75" customHeight="1">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="7"/>
@@ -12892,7 +13060,7 @@
       <c r="W478" s="3"/>
       <c r="X478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:24" ht="15.75" customHeight="1">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="7"/>
@@ -12918,7 +13086,7 @@
       <c r="W479" s="3"/>
       <c r="X479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:24" ht="15.75" customHeight="1">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="7"/>
@@ -12944,7 +13112,7 @@
       <c r="W480" s="3"/>
       <c r="X480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:24" ht="15.75" customHeight="1">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="7"/>
@@ -12970,7 +13138,7 @@
       <c r="W481" s="3"/>
       <c r="X481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:24" ht="15.75" customHeight="1">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="7"/>
@@ -12996,7 +13164,7 @@
       <c r="W482" s="3"/>
       <c r="X482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:24" ht="15.75" customHeight="1">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="7"/>
@@ -13022,7 +13190,7 @@
       <c r="W483" s="3"/>
       <c r="X483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:24" ht="15.75" customHeight="1">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="7"/>
@@ -13048,7 +13216,7 @@
       <c r="W484" s="3"/>
       <c r="X484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:24" ht="15.75" customHeight="1">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="7"/>
@@ -13074,7 +13242,7 @@
       <c r="W485" s="3"/>
       <c r="X485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:24" ht="15.75" customHeight="1">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="7"/>
@@ -13100,7 +13268,7 @@
       <c r="W486" s="3"/>
       <c r="X486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:24" ht="15.75" customHeight="1">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="7"/>
@@ -13126,7 +13294,7 @@
       <c r="W487" s="3"/>
       <c r="X487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:24" ht="15.75" customHeight="1">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="7"/>
@@ -13152,7 +13320,7 @@
       <c r="W488" s="3"/>
       <c r="X488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:24" ht="15.75" customHeight="1">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="7"/>
@@ -13178,7 +13346,7 @@
       <c r="W489" s="3"/>
       <c r="X489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:24" ht="15.75" customHeight="1">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="7"/>
@@ -13204,7 +13372,7 @@
       <c r="W490" s="3"/>
       <c r="X490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:24" ht="15.75" customHeight="1">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="7"/>
@@ -13230,7 +13398,7 @@
       <c r="W491" s="3"/>
       <c r="X491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:24" ht="15.75" customHeight="1">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="7"/>
@@ -13256,7 +13424,7 @@
       <c r="W492" s="3"/>
       <c r="X492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:24" ht="15.75" customHeight="1">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="7"/>
@@ -13282,7 +13450,7 @@
       <c r="W493" s="3"/>
       <c r="X493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:24" ht="15.75" customHeight="1">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="7"/>
@@ -13308,7 +13476,7 @@
       <c r="W494" s="3"/>
       <c r="X494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:24" ht="15.75" customHeight="1">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="7"/>
@@ -13334,7 +13502,7 @@
       <c r="W495" s="3"/>
       <c r="X495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:24" ht="15.75" customHeight="1">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="7"/>
@@ -13360,7 +13528,7 @@
       <c r="W496" s="3"/>
       <c r="X496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:24" ht="15.75" customHeight="1">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="7"/>
@@ -13386,7 +13554,7 @@
       <c r="W497" s="3"/>
       <c r="X497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:24" ht="15.75" customHeight="1">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="7"/>
@@ -13412,7 +13580,7 @@
       <c r="W498" s="3"/>
       <c r="X498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:24" ht="15.75" customHeight="1">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="7"/>
@@ -13438,7 +13606,7 @@
       <c r="W499" s="3"/>
       <c r="X499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:24" ht="15.75" customHeight="1">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="7"/>
@@ -13464,7 +13632,7 @@
       <c r="W500" s="3"/>
       <c r="X500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:24" ht="15.75" customHeight="1">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="7"/>
@@ -13490,7 +13658,7 @@
       <c r="W501" s="3"/>
       <c r="X501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:24" ht="15.75" customHeight="1">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="7"/>
@@ -13516,7 +13684,7 @@
       <c r="W502" s="3"/>
       <c r="X502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:24" ht="15.75" customHeight="1">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="7"/>
@@ -13542,7 +13710,7 @@
       <c r="W503" s="3"/>
       <c r="X503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:24" ht="15.75" customHeight="1">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="7"/>
@@ -13568,7 +13736,7 @@
       <c r="W504" s="3"/>
       <c r="X504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:24" ht="15.75" customHeight="1">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="7"/>
@@ -13594,7 +13762,7 @@
       <c r="W505" s="3"/>
       <c r="X505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:24" ht="15.75" customHeight="1">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="7"/>
@@ -13620,7 +13788,7 @@
       <c r="W506" s="3"/>
       <c r="X506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:24" ht="15.75" customHeight="1">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="7"/>
@@ -13646,7 +13814,7 @@
       <c r="W507" s="3"/>
       <c r="X507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:24" ht="15.75" customHeight="1">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="7"/>
@@ -13672,7 +13840,7 @@
       <c r="W508" s="3"/>
       <c r="X508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:24" ht="15.75" customHeight="1">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="7"/>
@@ -13698,7 +13866,7 @@
       <c r="W509" s="3"/>
       <c r="X509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:24" ht="15.75" customHeight="1">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="7"/>
@@ -13724,7 +13892,7 @@
       <c r="W510" s="3"/>
       <c r="X510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:24" ht="15.75" customHeight="1">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="7"/>
@@ -13750,7 +13918,7 @@
       <c r="W511" s="3"/>
       <c r="X511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:24" ht="15.75" customHeight="1">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="7"/>
@@ -13776,7 +13944,7 @@
       <c r="W512" s="3"/>
       <c r="X512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:24" ht="15.75" customHeight="1">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="7"/>
@@ -13802,7 +13970,7 @@
       <c r="W513" s="3"/>
       <c r="X513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:24" ht="15.75" customHeight="1">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="7"/>
@@ -13828,7 +13996,7 @@
       <c r="W514" s="3"/>
       <c r="X514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:24" ht="15.75" customHeight="1">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="7"/>
@@ -13854,7 +14022,7 @@
       <c r="W515" s="3"/>
       <c r="X515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:24" ht="15.75" customHeight="1">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="7"/>
@@ -13880,7 +14048,7 @@
       <c r="W516" s="3"/>
       <c r="X516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:24" ht="15.75" customHeight="1">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="7"/>
@@ -13906,7 +14074,7 @@
       <c r="W517" s="3"/>
       <c r="X517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:24" ht="15.75" customHeight="1">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="7"/>
@@ -13932,7 +14100,7 @@
       <c r="W518" s="3"/>
       <c r="X518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:24" ht="15.75" customHeight="1">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="7"/>
@@ -13958,7 +14126,7 @@
       <c r="W519" s="3"/>
       <c r="X519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:24" ht="15.75" customHeight="1">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="7"/>
@@ -13984,7 +14152,7 @@
       <c r="W520" s="3"/>
       <c r="X520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:24" ht="15.75" customHeight="1">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="7"/>
@@ -14010,7 +14178,7 @@
       <c r="W521" s="3"/>
       <c r="X521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:24" ht="15.75" customHeight="1">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="7"/>
@@ -14036,7 +14204,7 @@
       <c r="W522" s="3"/>
       <c r="X522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:24" ht="15.75" customHeight="1">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="7"/>
@@ -14062,7 +14230,7 @@
       <c r="W523" s="3"/>
       <c r="X523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:24" ht="15.75" customHeight="1">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="7"/>
@@ -14088,7 +14256,7 @@
       <c r="W524" s="3"/>
       <c r="X524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:24" ht="15.75" customHeight="1">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="7"/>
@@ -14114,7 +14282,7 @@
       <c r="W525" s="3"/>
       <c r="X525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:24" ht="15.75" customHeight="1">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="7"/>
@@ -14140,7 +14308,7 @@
       <c r="W526" s="3"/>
       <c r="X526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:24" ht="15.75" customHeight="1">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="7"/>
@@ -14166,7 +14334,7 @@
       <c r="W527" s="3"/>
       <c r="X527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:24" ht="15.75" customHeight="1">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="7"/>
@@ -14192,7 +14360,7 @@
       <c r="W528" s="3"/>
       <c r="X528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:24" ht="15.75" customHeight="1">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="7"/>
@@ -14218,7 +14386,7 @@
       <c r="W529" s="3"/>
       <c r="X529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:24" ht="15.75" customHeight="1">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="7"/>
@@ -14244,7 +14412,7 @@
       <c r="W530" s="3"/>
       <c r="X530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:24" ht="15.75" customHeight="1">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="7"/>
@@ -14270,7 +14438,7 @@
       <c r="W531" s="3"/>
       <c r="X531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:24" ht="15.75" customHeight="1">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="7"/>
@@ -14296,7 +14464,7 @@
       <c r="W532" s="3"/>
       <c r="X532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:24" ht="15.75" customHeight="1">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="7"/>
@@ -14322,7 +14490,7 @@
       <c r="W533" s="3"/>
       <c r="X533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:24" ht="15.75" customHeight="1">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="7"/>
@@ -14348,7 +14516,7 @@
       <c r="W534" s="3"/>
       <c r="X534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:24" ht="15.75" customHeight="1">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="7"/>
@@ -14374,7 +14542,7 @@
       <c r="W535" s="3"/>
       <c r="X535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:24" ht="15.75" customHeight="1">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="7"/>
@@ -14400,7 +14568,7 @@
       <c r="W536" s="3"/>
       <c r="X536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:24" ht="15.75" customHeight="1">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="7"/>
@@ -14426,7 +14594,7 @@
       <c r="W537" s="3"/>
       <c r="X537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:24" ht="15.75" customHeight="1">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="7"/>
@@ -14452,7 +14620,7 @@
       <c r="W538" s="3"/>
       <c r="X538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:24" ht="15.75" customHeight="1">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="7"/>
@@ -14478,7 +14646,7 @@
       <c r="W539" s="3"/>
       <c r="X539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:24" ht="15.75" customHeight="1">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="7"/>
@@ -14504,7 +14672,7 @@
       <c r="W540" s="3"/>
       <c r="X540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:24" ht="15.75" customHeight="1">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="7"/>
@@ -14530,7 +14698,7 @@
       <c r="W541" s="3"/>
       <c r="X541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:24" ht="15.75" customHeight="1">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="7"/>
@@ -14556,7 +14724,7 @@
       <c r="W542" s="3"/>
       <c r="X542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:24" ht="15.75" customHeight="1">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="7"/>
@@ -14582,7 +14750,7 @@
       <c r="W543" s="3"/>
       <c r="X543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:24" ht="15.75" customHeight="1">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="7"/>
@@ -14608,7 +14776,7 @@
       <c r="W544" s="3"/>
       <c r="X544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:24" ht="15.75" customHeight="1">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="7"/>
@@ -14634,7 +14802,7 @@
       <c r="W545" s="3"/>
       <c r="X545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:24" ht="15.75" customHeight="1">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="7"/>
@@ -14660,7 +14828,7 @@
       <c r="W546" s="3"/>
       <c r="X546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:24" ht="15.75" customHeight="1">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="7"/>
@@ -14686,7 +14854,7 @@
       <c r="W547" s="3"/>
       <c r="X547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:24" ht="15.75" customHeight="1">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="7"/>
@@ -14712,7 +14880,7 @@
       <c r="W548" s="3"/>
       <c r="X548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:24" ht="15.75" customHeight="1">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="7"/>
@@ -14738,7 +14906,7 @@
       <c r="W549" s="3"/>
       <c r="X549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:24" ht="15.75" customHeight="1">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="7"/>
@@ -14764,7 +14932,7 @@
       <c r="W550" s="3"/>
       <c r="X550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:24" ht="15.75" customHeight="1">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="7"/>
@@ -14790,7 +14958,7 @@
       <c r="W551" s="3"/>
       <c r="X551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:24" ht="15.75" customHeight="1">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="7"/>
@@ -14816,7 +14984,7 @@
       <c r="W552" s="3"/>
       <c r="X552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:24" ht="15.75" customHeight="1">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="7"/>
@@ -14842,7 +15010,7 @@
       <c r="W553" s="3"/>
       <c r="X553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:24" ht="15.75" customHeight="1">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="7"/>
@@ -14868,7 +15036,7 @@
       <c r="W554" s="3"/>
       <c r="X554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:24" ht="15.75" customHeight="1">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="7"/>
@@ -14894,7 +15062,7 @@
       <c r="W555" s="3"/>
       <c r="X555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:24" ht="15.75" customHeight="1">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="7"/>
@@ -14920,7 +15088,7 @@
       <c r="W556" s="3"/>
       <c r="X556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:24" ht="15.75" customHeight="1">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="7"/>
@@ -14946,7 +15114,7 @@
       <c r="W557" s="3"/>
       <c r="X557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:24" ht="15.75" customHeight="1">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="7"/>
@@ -14972,7 +15140,7 @@
       <c r="W558" s="3"/>
       <c r="X558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:24" ht="15.75" customHeight="1">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="7"/>
@@ -14998,7 +15166,7 @@
       <c r="W559" s="3"/>
       <c r="X559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:24" ht="15.75" customHeight="1">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="7"/>
@@ -15024,7 +15192,7 @@
       <c r="W560" s="3"/>
       <c r="X560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:24" ht="15.75" customHeight="1">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="7"/>
@@ -15050,7 +15218,7 @@
       <c r="W561" s="3"/>
       <c r="X561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:24" ht="15.75" customHeight="1">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="7"/>
@@ -15076,7 +15244,7 @@
       <c r="W562" s="3"/>
       <c r="X562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:24" ht="15.75" customHeight="1">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="7"/>
@@ -15102,7 +15270,7 @@
       <c r="W563" s="3"/>
       <c r="X563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:24" ht="15.75" customHeight="1">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="7"/>
@@ -15128,7 +15296,7 @@
       <c r="W564" s="3"/>
       <c r="X564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:24" ht="15.75" customHeight="1">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="7"/>
@@ -15154,7 +15322,7 @@
       <c r="W565" s="3"/>
       <c r="X565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:24" ht="15.75" customHeight="1">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="7"/>
@@ -15180,7 +15348,7 @@
       <c r="W566" s="3"/>
       <c r="X566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:24" ht="15.75" customHeight="1">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="7"/>
@@ -15206,7 +15374,7 @@
       <c r="W567" s="3"/>
       <c r="X567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:24" ht="15.75" customHeight="1">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="7"/>
@@ -15232,7 +15400,7 @@
       <c r="W568" s="3"/>
       <c r="X568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:24" ht="15.75" customHeight="1">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="7"/>
@@ -15258,7 +15426,7 @@
       <c r="W569" s="3"/>
       <c r="X569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:24" ht="15.75" customHeight="1">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="7"/>
@@ -15284,7 +15452,7 @@
       <c r="W570" s="3"/>
       <c r="X570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:24" ht="15.75" customHeight="1">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="7"/>
@@ -15310,7 +15478,7 @@
       <c r="W571" s="3"/>
       <c r="X571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:24" ht="15.75" customHeight="1">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="7"/>
@@ -15336,7 +15504,7 @@
       <c r="W572" s="3"/>
       <c r="X572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:24" ht="15.75" customHeight="1">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="7"/>
@@ -15362,7 +15530,7 @@
       <c r="W573" s="3"/>
       <c r="X573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:24" ht="15.75" customHeight="1">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="7"/>
@@ -15388,7 +15556,7 @@
       <c r="W574" s="3"/>
       <c r="X574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:24" ht="15.75" customHeight="1">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="7"/>
@@ -15414,7 +15582,7 @@
       <c r="W575" s="3"/>
       <c r="X575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:24" ht="15.75" customHeight="1">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="7"/>
@@ -15440,7 +15608,7 @@
       <c r="W576" s="3"/>
       <c r="X576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:24" ht="15.75" customHeight="1">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="7"/>
@@ -15466,7 +15634,7 @@
       <c r="W577" s="3"/>
       <c r="X577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:24" ht="15.75" customHeight="1">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="7"/>
@@ -15492,7 +15660,7 @@
       <c r="W578" s="3"/>
       <c r="X578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:24" ht="15.75" customHeight="1">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="7"/>
@@ -15518,7 +15686,7 @@
       <c r="W579" s="3"/>
       <c r="X579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:24" ht="15.75" customHeight="1">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="7"/>
@@ -15544,7 +15712,7 @@
       <c r="W580" s="3"/>
       <c r="X580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:24" ht="15.75" customHeight="1">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="7"/>
@@ -15570,7 +15738,7 @@
       <c r="W581" s="3"/>
       <c r="X581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:24" ht="15.75" customHeight="1">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="7"/>
@@ -15596,7 +15764,7 @@
       <c r="W582" s="3"/>
       <c r="X582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:24" ht="15.75" customHeight="1">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="7"/>
@@ -15622,7 +15790,7 @@
       <c r="W583" s="3"/>
       <c r="X583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:24" ht="15.75" customHeight="1">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="7"/>
@@ -15648,7 +15816,7 @@
       <c r="W584" s="3"/>
       <c r="X584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:24" ht="15.75" customHeight="1">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="7"/>
@@ -15674,7 +15842,7 @@
       <c r="W585" s="3"/>
       <c r="X585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:24" ht="15.75" customHeight="1">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="7"/>
@@ -15700,7 +15868,7 @@
       <c r="W586" s="3"/>
       <c r="X586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:24" ht="15.75" customHeight="1">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="7"/>
@@ -15726,7 +15894,7 @@
       <c r="W587" s="3"/>
       <c r="X587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:24" ht="15.75" customHeight="1">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="7"/>
@@ -15752,7 +15920,7 @@
       <c r="W588" s="3"/>
       <c r="X588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:24" ht="15.75" customHeight="1">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="7"/>
@@ -15778,7 +15946,7 @@
       <c r="W589" s="3"/>
       <c r="X589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:24" ht="15.75" customHeight="1">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="7"/>
@@ -15804,7 +15972,7 @@
       <c r="W590" s="3"/>
       <c r="X590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:24" ht="15.75" customHeight="1">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="7"/>
@@ -15830,7 +15998,7 @@
       <c r="W591" s="3"/>
       <c r="X591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:24" ht="15.75" customHeight="1">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="7"/>
@@ -15856,7 +16024,7 @@
       <c r="W592" s="3"/>
       <c r="X592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:24" ht="15.75" customHeight="1">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="7"/>
@@ -15882,7 +16050,7 @@
       <c r="W593" s="3"/>
       <c r="X593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:24" ht="15.75" customHeight="1">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="7"/>
@@ -15908,7 +16076,7 @@
       <c r="W594" s="3"/>
       <c r="X594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:24" ht="15.75" customHeight="1">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="7"/>
@@ -15934,7 +16102,7 @@
       <c r="W595" s="3"/>
       <c r="X595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:24" ht="15.75" customHeight="1">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="7"/>
@@ -15960,7 +16128,7 @@
       <c r="W596" s="3"/>
       <c r="X596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:24" ht="15.75" customHeight="1">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="7"/>
@@ -15986,7 +16154,7 @@
       <c r="W597" s="3"/>
       <c r="X597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:24" ht="15.75" customHeight="1">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="7"/>
@@ -16012,7 +16180,7 @@
       <c r="W598" s="3"/>
       <c r="X598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:24" ht="15.75" customHeight="1">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="7"/>
@@ -16038,7 +16206,7 @@
       <c r="W599" s="3"/>
       <c r="X599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:24" ht="15.75" customHeight="1">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="7"/>
@@ -16064,7 +16232,7 @@
       <c r="W600" s="3"/>
       <c r="X600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:24" ht="15.75" customHeight="1">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="7"/>
@@ -16090,7 +16258,7 @@
       <c r="W601" s="3"/>
       <c r="X601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:24" ht="15.75" customHeight="1">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="7"/>
@@ -16116,7 +16284,7 @@
       <c r="W602" s="3"/>
       <c r="X602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:24" ht="15.75" customHeight="1">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="7"/>
@@ -16142,7 +16310,7 @@
       <c r="W603" s="3"/>
       <c r="X603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:24" ht="15.75" customHeight="1">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="7"/>
@@ -16168,7 +16336,7 @@
       <c r="W604" s="3"/>
       <c r="X604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:24" ht="15.75" customHeight="1">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="7"/>
@@ -16194,7 +16362,7 @@
       <c r="W605" s="3"/>
       <c r="X605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:24" ht="15.75" customHeight="1">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="7"/>
@@ -16220,7 +16388,7 @@
       <c r="W606" s="3"/>
       <c r="X606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:24" ht="15.75" customHeight="1">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="7"/>
@@ -16246,7 +16414,7 @@
       <c r="W607" s="3"/>
       <c r="X607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:24" ht="15.75" customHeight="1">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="7"/>
@@ -16272,7 +16440,7 @@
       <c r="W608" s="3"/>
       <c r="X608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:24" ht="15.75" customHeight="1">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="7"/>
@@ -16298,7 +16466,7 @@
       <c r="W609" s="3"/>
       <c r="X609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:24" ht="15.75" customHeight="1">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="7"/>
@@ -16324,7 +16492,7 @@
       <c r="W610" s="3"/>
       <c r="X610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:24" ht="15.75" customHeight="1">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="7"/>
@@ -16350,7 +16518,7 @@
       <c r="W611" s="3"/>
       <c r="X611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:24" ht="15.75" customHeight="1">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="7"/>
@@ -16376,7 +16544,7 @@
       <c r="W612" s="3"/>
       <c r="X612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:24" ht="15.75" customHeight="1">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="7"/>
@@ -16402,7 +16570,7 @@
       <c r="W613" s="3"/>
       <c r="X613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:24" ht="15.75" customHeight="1">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="7"/>
@@ -16428,7 +16596,7 @@
       <c r="W614" s="3"/>
       <c r="X614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:24" ht="15.75" customHeight="1">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="7"/>
@@ -16454,7 +16622,7 @@
       <c r="W615" s="3"/>
       <c r="X615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:24" ht="15.75" customHeight="1">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="7"/>
@@ -16480,7 +16648,7 @@
       <c r="W616" s="3"/>
       <c r="X616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:24" ht="15.75" customHeight="1">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="7"/>
@@ -16506,7 +16674,7 @@
       <c r="W617" s="3"/>
       <c r="X617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:24" ht="15.75" customHeight="1">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="7"/>
@@ -16532,7 +16700,7 @@
       <c r="W618" s="3"/>
       <c r="X618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:24" ht="15.75" customHeight="1">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="7"/>
@@ -16558,7 +16726,7 @@
       <c r="W619" s="3"/>
       <c r="X619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:24" ht="15.75" customHeight="1">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="7"/>
@@ -16584,7 +16752,7 @@
       <c r="W620" s="3"/>
       <c r="X620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:24" ht="15.75" customHeight="1">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="7"/>
@@ -16610,7 +16778,7 @@
       <c r="W621" s="3"/>
       <c r="X621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:24" ht="15.75" customHeight="1">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="7"/>
@@ -16636,7 +16804,7 @@
       <c r="W622" s="3"/>
       <c r="X622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:24" ht="15.75" customHeight="1">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="7"/>
@@ -16662,7 +16830,7 @@
       <c r="W623" s="3"/>
       <c r="X623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:24" ht="15.75" customHeight="1">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="7"/>
@@ -16688,7 +16856,7 @@
       <c r="W624" s="3"/>
       <c r="X624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:24" ht="15.75" customHeight="1">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="7"/>
@@ -16714,7 +16882,7 @@
       <c r="W625" s="3"/>
       <c r="X625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:24" ht="15.75" customHeight="1">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="7"/>
@@ -16740,7 +16908,7 @@
       <c r="W626" s="3"/>
       <c r="X626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:24" ht="15.75" customHeight="1">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="7"/>
@@ -16766,7 +16934,7 @@
       <c r="W627" s="3"/>
       <c r="X627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:24" ht="15.75" customHeight="1">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="7"/>
@@ -16792,7 +16960,7 @@
       <c r="W628" s="3"/>
       <c r="X628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:24" ht="15.75" customHeight="1">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="7"/>
@@ -16818,7 +16986,7 @@
       <c r="W629" s="3"/>
       <c r="X629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:24" ht="15.75" customHeight="1">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="7"/>
@@ -16844,7 +17012,7 @@
       <c r="W630" s="3"/>
       <c r="X630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:24" ht="15.75" customHeight="1">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="7"/>
@@ -16870,7 +17038,7 @@
       <c r="W631" s="3"/>
       <c r="X631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:24" ht="15.75" customHeight="1">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="7"/>
@@ -16896,7 +17064,7 @@
       <c r="W632" s="3"/>
       <c r="X632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:24" ht="15.75" customHeight="1">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="7"/>
@@ -16922,7 +17090,7 @@
       <c r="W633" s="3"/>
       <c r="X633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:24" ht="15.75" customHeight="1">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="7"/>
@@ -16948,7 +17116,7 @@
       <c r="W634" s="3"/>
       <c r="X634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:24" ht="15.75" customHeight="1">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="7"/>
@@ -16974,7 +17142,7 @@
       <c r="W635" s="3"/>
       <c r="X635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:24" ht="15.75" customHeight="1">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="7"/>
@@ -17000,7 +17168,7 @@
       <c r="W636" s="3"/>
       <c r="X636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:24" ht="15.75" customHeight="1">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="7"/>
@@ -17026,7 +17194,7 @@
       <c r="W637" s="3"/>
       <c r="X637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:24" ht="15.75" customHeight="1">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="7"/>
@@ -17052,7 +17220,7 @@
       <c r="W638" s="3"/>
       <c r="X638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:24" ht="15.75" customHeight="1">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="7"/>
@@ -17078,7 +17246,7 @@
       <c r="W639" s="3"/>
       <c r="X639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:24" ht="15.75" customHeight="1">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="7"/>
@@ -17104,7 +17272,7 @@
       <c r="W640" s="3"/>
       <c r="X640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:24" ht="15.75" customHeight="1">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="7"/>
@@ -17130,7 +17298,7 @@
       <c r="W641" s="3"/>
       <c r="X641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:24" ht="15.75" customHeight="1">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="7"/>
@@ -17156,7 +17324,7 @@
       <c r="W642" s="3"/>
       <c r="X642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:24" ht="15.75" customHeight="1">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="7"/>
@@ -17182,7 +17350,7 @@
       <c r="W643" s="3"/>
       <c r="X643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:24" ht="15.75" customHeight="1">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="7"/>
@@ -17208,7 +17376,7 @@
       <c r="W644" s="3"/>
       <c r="X644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:24" ht="15.75" customHeight="1">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="7"/>
@@ -17234,7 +17402,7 @@
       <c r="W645" s="3"/>
       <c r="X645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:24" ht="15.75" customHeight="1">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="7"/>
@@ -17260,7 +17428,7 @@
       <c r="W646" s="3"/>
       <c r="X646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:24" ht="15.75" customHeight="1">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="7"/>
@@ -17286,7 +17454,7 @@
       <c r="W647" s="3"/>
       <c r="X647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:24" ht="15.75" customHeight="1">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="7"/>
@@ -17312,7 +17480,7 @@
       <c r="W648" s="3"/>
       <c r="X648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:24" ht="15.75" customHeight="1">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="7"/>
@@ -17338,7 +17506,7 @@
       <c r="W649" s="3"/>
       <c r="X649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:24" ht="15.75" customHeight="1">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="7"/>
@@ -17364,7 +17532,7 @@
       <c r="W650" s="3"/>
       <c r="X650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:24" ht="15.75" customHeight="1">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="7"/>
@@ -17390,7 +17558,7 @@
       <c r="W651" s="3"/>
       <c r="X651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:24" ht="15.75" customHeight="1">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="7"/>
@@ -17416,7 +17584,7 @@
       <c r="W652" s="3"/>
       <c r="X652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:24" ht="15.75" customHeight="1">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="7"/>
@@ -17442,7 +17610,7 @@
       <c r="W653" s="3"/>
       <c r="X653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:24" ht="15.75" customHeight="1">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="7"/>
@@ -17468,7 +17636,7 @@
       <c r="W654" s="3"/>
       <c r="X654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:24" ht="15.75" customHeight="1">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="7"/>
@@ -17494,7 +17662,7 @@
       <c r="W655" s="3"/>
       <c r="X655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:24" ht="15.75" customHeight="1">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="7"/>
@@ -17520,7 +17688,7 @@
       <c r="W656" s="3"/>
       <c r="X656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:24" ht="15.75" customHeight="1">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="7"/>
@@ -17546,7 +17714,7 @@
       <c r="W657" s="3"/>
       <c r="X657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:24" ht="15.75" customHeight="1">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="7"/>
@@ -17572,7 +17740,7 @@
       <c r="W658" s="3"/>
       <c r="X658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:24" ht="15.75" customHeight="1">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="7"/>
@@ -17598,7 +17766,7 @@
       <c r="W659" s="3"/>
       <c r="X659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:24" ht="15.75" customHeight="1">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="7"/>
@@ -17624,7 +17792,7 @@
       <c r="W660" s="3"/>
       <c r="X660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:24" ht="15.75" customHeight="1">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="7"/>
@@ -17650,7 +17818,7 @@
       <c r="W661" s="3"/>
       <c r="X661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:24" ht="15.75" customHeight="1">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="7"/>
@@ -17676,7 +17844,7 @@
       <c r="W662" s="3"/>
       <c r="X662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:24" ht="15.75" customHeight="1">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="7"/>
@@ -17702,7 +17870,7 @@
       <c r="W663" s="3"/>
       <c r="X663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:24" ht="15.75" customHeight="1">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="7"/>
@@ -17728,7 +17896,7 @@
       <c r="W664" s="3"/>
       <c r="X664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:24" ht="15.75" customHeight="1">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="7"/>
@@ -17754,7 +17922,7 @@
       <c r="W665" s="3"/>
       <c r="X665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:24" ht="15.75" customHeight="1">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="7"/>
@@ -17780,7 +17948,7 @@
       <c r="W666" s="3"/>
       <c r="X666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:24" ht="15.75" customHeight="1">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="7"/>
@@ -17806,7 +17974,7 @@
       <c r="W667" s="3"/>
       <c r="X667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:24" ht="15.75" customHeight="1">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="7"/>
@@ -17832,7 +18000,7 @@
       <c r="W668" s="3"/>
       <c r="X668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:24" ht="15.75" customHeight="1">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="7"/>
@@ -17858,7 +18026,7 @@
       <c r="W669" s="3"/>
       <c r="X669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:24" ht="15.75" customHeight="1">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="7"/>
@@ -17884,7 +18052,7 @@
       <c r="W670" s="3"/>
       <c r="X670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:24" ht="15.75" customHeight="1">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="7"/>
@@ -17910,7 +18078,7 @@
       <c r="W671" s="3"/>
       <c r="X671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:24" ht="15.75" customHeight="1">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="7"/>
@@ -17936,7 +18104,7 @@
       <c r="W672" s="3"/>
       <c r="X672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:24" ht="15.75" customHeight="1">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="7"/>
@@ -17962,7 +18130,7 @@
       <c r="W673" s="3"/>
       <c r="X673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:24" ht="15.75" customHeight="1">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="7"/>
@@ -17988,7 +18156,7 @@
       <c r="W674" s="3"/>
       <c r="X674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:24" ht="15.75" customHeight="1">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="7"/>
@@ -18014,7 +18182,7 @@
       <c r="W675" s="3"/>
       <c r="X675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:24" ht="15.75" customHeight="1">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="7"/>
@@ -18040,7 +18208,7 @@
       <c r="W676" s="3"/>
       <c r="X676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:24" ht="15.75" customHeight="1">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="7"/>
@@ -18066,7 +18234,7 @@
       <c r="W677" s="3"/>
       <c r="X677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:24" ht="15.75" customHeight="1">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="7"/>
@@ -18092,7 +18260,7 @@
       <c r="W678" s="3"/>
       <c r="X678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:24" ht="15.75" customHeight="1">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="7"/>
@@ -18118,7 +18286,7 @@
       <c r="W679" s="3"/>
       <c r="X679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:24" ht="15.75" customHeight="1">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="7"/>
@@ -18144,7 +18312,7 @@
       <c r="W680" s="3"/>
       <c r="X680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:24" ht="15.75" customHeight="1">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="7"/>
@@ -18170,7 +18338,7 @@
       <c r="W681" s="3"/>
       <c r="X681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:24" ht="15.75" customHeight="1">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="7"/>
@@ -18196,7 +18364,7 @@
       <c r="W682" s="3"/>
       <c r="X682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:24" ht="15.75" customHeight="1">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="7"/>
@@ -18222,7 +18390,7 @@
       <c r="W683" s="3"/>
       <c r="X683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:24" ht="15.75" customHeight="1">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="7"/>
@@ -18248,7 +18416,7 @@
       <c r="W684" s="3"/>
       <c r="X684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:24" ht="15.75" customHeight="1">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="7"/>
@@ -18274,7 +18442,7 @@
       <c r="W685" s="3"/>
       <c r="X685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:24" ht="15.75" customHeight="1">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="7"/>
@@ -18300,7 +18468,7 @@
       <c r="W686" s="3"/>
       <c r="X686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:24" ht="15.75" customHeight="1">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="7"/>
@@ -18326,7 +18494,7 @@
       <c r="W687" s="3"/>
       <c r="X687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:24" ht="15.75" customHeight="1">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="7"/>
@@ -18352,7 +18520,7 @@
       <c r="W688" s="3"/>
       <c r="X688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:24" ht="15.75" customHeight="1">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="7"/>
@@ -18378,7 +18546,7 @@
       <c r="W689" s="3"/>
       <c r="X689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:24" ht="15.75" customHeight="1">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="7"/>
@@ -18404,7 +18572,7 @@
       <c r="W690" s="3"/>
       <c r="X690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:24" ht="15.75" customHeight="1">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="7"/>
@@ -18430,7 +18598,7 @@
       <c r="W691" s="3"/>
       <c r="X691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:24" ht="15.75" customHeight="1">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="7"/>
@@ -18456,7 +18624,7 @@
       <c r="W692" s="3"/>
       <c r="X692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:24" ht="15.75" customHeight="1">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="7"/>
@@ -18482,7 +18650,7 @@
       <c r="W693" s="3"/>
       <c r="X693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:24" ht="15.75" customHeight="1">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="7"/>
@@ -18508,7 +18676,7 @@
       <c r="W694" s="3"/>
       <c r="X694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:24" ht="15.75" customHeight="1">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="7"/>
@@ -18534,7 +18702,7 @@
       <c r="W695" s="3"/>
       <c r="X695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:24" ht="15.75" customHeight="1">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="7"/>
@@ -18560,7 +18728,7 @@
       <c r="W696" s="3"/>
       <c r="X696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:24" ht="15.75" customHeight="1">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="7"/>
@@ -18586,7 +18754,7 @@
       <c r="W697" s="3"/>
       <c r="X697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:24" ht="15.75" customHeight="1">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="7"/>
@@ -18612,7 +18780,7 @@
       <c r="W698" s="3"/>
       <c r="X698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:24" ht="15.75" customHeight="1">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="7"/>
@@ -18638,7 +18806,7 @@
       <c r="W699" s="3"/>
       <c r="X699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:24" ht="15.75" customHeight="1">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="7"/>
@@ -18664,7 +18832,7 @@
       <c r="W700" s="3"/>
       <c r="X700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:24" ht="15.75" customHeight="1">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="7"/>
@@ -18690,7 +18858,7 @@
       <c r="W701" s="3"/>
       <c r="X701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:24" ht="15.75" customHeight="1">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="7"/>
@@ -18716,7 +18884,7 @@
       <c r="W702" s="3"/>
       <c r="X702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:24" ht="15.75" customHeight="1">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="7"/>
@@ -18742,7 +18910,7 @@
       <c r="W703" s="3"/>
       <c r="X703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:24" ht="15.75" customHeight="1">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="7"/>
@@ -18768,7 +18936,7 @@
       <c r="W704" s="3"/>
       <c r="X704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:24" ht="15.75" customHeight="1">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="7"/>
@@ -18794,7 +18962,7 @@
       <c r="W705" s="3"/>
       <c r="X705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:24" ht="15.75" customHeight="1">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="7"/>
@@ -18820,7 +18988,7 @@
       <c r="W706" s="3"/>
       <c r="X706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:24" ht="15.75" customHeight="1">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="7"/>
@@ -18846,7 +19014,7 @@
       <c r="W707" s="3"/>
       <c r="X707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:24" ht="15.75" customHeight="1">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="7"/>
@@ -18872,7 +19040,7 @@
       <c r="W708" s="3"/>
       <c r="X708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:24" ht="15.75" customHeight="1">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="7"/>
@@ -18898,7 +19066,7 @@
       <c r="W709" s="3"/>
       <c r="X709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:24" ht="15.75" customHeight="1">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="7"/>
@@ -18924,7 +19092,7 @@
       <c r="W710" s="3"/>
       <c r="X710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:24" ht="15.75" customHeight="1">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="7"/>
@@ -18950,7 +19118,7 @@
       <c r="W711" s="3"/>
       <c r="X711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:24" ht="15.75" customHeight="1">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="7"/>
@@ -18976,7 +19144,7 @@
       <c r="W712" s="3"/>
       <c r="X712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:24" ht="15.75" customHeight="1">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="7"/>
@@ -19002,7 +19170,7 @@
       <c r="W713" s="3"/>
       <c r="X713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:24" ht="15.75" customHeight="1">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="7"/>
@@ -19028,7 +19196,7 @@
       <c r="W714" s="3"/>
       <c r="X714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:24" ht="15.75" customHeight="1">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="7"/>
@@ -19054,7 +19222,7 @@
       <c r="W715" s="3"/>
       <c r="X715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:24" ht="15.75" customHeight="1">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="7"/>
@@ -19080,7 +19248,7 @@
       <c r="W716" s="3"/>
       <c r="X716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:24" ht="15.75" customHeight="1">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="7"/>
@@ -19106,7 +19274,7 @@
       <c r="W717" s="3"/>
       <c r="X717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:24" ht="15.75" customHeight="1">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="7"/>
@@ -19132,7 +19300,7 @@
       <c r="W718" s="3"/>
       <c r="X718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:24" ht="15.75" customHeight="1">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="7"/>
@@ -19158,7 +19326,7 @@
       <c r="W719" s="3"/>
       <c r="X719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:24" ht="15.75" customHeight="1">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="7"/>
@@ -19184,7 +19352,7 @@
       <c r="W720" s="3"/>
       <c r="X720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:24" ht="15.75" customHeight="1">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="7"/>
@@ -19210,7 +19378,7 @@
       <c r="W721" s="3"/>
       <c r="X721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:24" ht="15.75" customHeight="1">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="7"/>
@@ -19236,7 +19404,7 @@
       <c r="W722" s="3"/>
       <c r="X722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:24" ht="15.75" customHeight="1">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="7"/>
@@ -19262,7 +19430,7 @@
       <c r="W723" s="3"/>
       <c r="X723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:24" ht="15.75" customHeight="1">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="7"/>
@@ -19288,7 +19456,7 @@
       <c r="W724" s="3"/>
       <c r="X724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:24" ht="15.75" customHeight="1">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="7"/>
@@ -19314,7 +19482,7 @@
       <c r="W725" s="3"/>
       <c r="X725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:24" ht="15.75" customHeight="1">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="7"/>
@@ -19340,7 +19508,7 @@
       <c r="W726" s="3"/>
       <c r="X726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:24" ht="15.75" customHeight="1">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="7"/>
@@ -19366,7 +19534,7 @@
       <c r="W727" s="3"/>
       <c r="X727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:24" ht="15.75" customHeight="1">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="7"/>
@@ -19392,7 +19560,7 @@
       <c r="W728" s="3"/>
       <c r="X728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:24" ht="15.75" customHeight="1">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="7"/>
@@ -19418,7 +19586,7 @@
       <c r="W729" s="3"/>
       <c r="X729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:24" ht="15.75" customHeight="1">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="7"/>
@@ -19444,7 +19612,7 @@
       <c r="W730" s="3"/>
       <c r="X730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:24" ht="15.75" customHeight="1">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="7"/>
@@ -19470,7 +19638,7 @@
       <c r="W731" s="3"/>
       <c r="X731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:24" ht="15.75" customHeight="1">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="7"/>
@@ -19496,7 +19664,7 @@
       <c r="W732" s="3"/>
       <c r="X732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:24" ht="15.75" customHeight="1">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="7"/>
@@ -19522,7 +19690,7 @@
       <c r="W733" s="3"/>
       <c r="X733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:24" ht="15.75" customHeight="1">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="7"/>
@@ -19548,7 +19716,7 @@
       <c r="W734" s="3"/>
       <c r="X734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:24" ht="15.75" customHeight="1">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="7"/>
@@ -19574,7 +19742,7 @@
       <c r="W735" s="3"/>
       <c r="X735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:24" ht="15.75" customHeight="1">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="7"/>
@@ -19600,7 +19768,7 @@
       <c r="W736" s="3"/>
       <c r="X736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:24" ht="15.75" customHeight="1">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="7"/>
@@ -19626,7 +19794,7 @@
       <c r="W737" s="3"/>
       <c r="X737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:24" ht="15.75" customHeight="1">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="7"/>
@@ -19652,7 +19820,7 @@
       <c r="W738" s="3"/>
       <c r="X738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:24" ht="15.75" customHeight="1">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="7"/>
@@ -19678,7 +19846,7 @@
       <c r="W739" s="3"/>
       <c r="X739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:24" ht="15.75" customHeight="1">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="7"/>
@@ -19704,7 +19872,7 @@
       <c r="W740" s="3"/>
       <c r="X740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:24" ht="15.75" customHeight="1">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="7"/>
@@ -19730,7 +19898,7 @@
       <c r="W741" s="3"/>
       <c r="X741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:24" ht="15.75" customHeight="1">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="7"/>
@@ -19756,7 +19924,7 @@
       <c r="W742" s="3"/>
       <c r="X742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:24" ht="15.75" customHeight="1">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="7"/>
@@ -19782,7 +19950,7 @@
       <c r="W743" s="3"/>
       <c r="X743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:24" ht="15.75" customHeight="1">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="7"/>
@@ -19808,7 +19976,7 @@
       <c r="W744" s="3"/>
       <c r="X744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:24" ht="15.75" customHeight="1">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="7"/>
@@ -19834,7 +20002,7 @@
       <c r="W745" s="3"/>
       <c r="X745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:24" ht="15.75" customHeight="1">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="7"/>
@@ -19860,7 +20028,7 @@
       <c r="W746" s="3"/>
       <c r="X746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:24" ht="15.75" customHeight="1">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="7"/>
@@ -19886,7 +20054,7 @@
       <c r="W747" s="3"/>
       <c r="X747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:24" ht="15.75" customHeight="1">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="7"/>
@@ -19912,7 +20080,7 @@
       <c r="W748" s="3"/>
       <c r="X748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:24" ht="15.75" customHeight="1">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="7"/>
@@ -19938,7 +20106,7 @@
       <c r="W749" s="3"/>
       <c r="X749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:24" ht="15.75" customHeight="1">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="7"/>
@@ -19964,7 +20132,7 @@
       <c r="W750" s="3"/>
       <c r="X750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:24" ht="15.75" customHeight="1">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="7"/>
@@ -19990,7 +20158,7 @@
       <c r="W751" s="3"/>
       <c r="X751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:24" ht="15.75" customHeight="1">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="7"/>
@@ -20016,7 +20184,7 @@
       <c r="W752" s="3"/>
       <c r="X752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:24" ht="15.75" customHeight="1">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="7"/>
@@ -20042,7 +20210,7 @@
       <c r="W753" s="3"/>
       <c r="X753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:24" ht="15.75" customHeight="1">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="7"/>
@@ -20068,7 +20236,7 @@
       <c r="W754" s="3"/>
       <c r="X754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:24" ht="15.75" customHeight="1">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="7"/>
@@ -20094,7 +20262,7 @@
       <c r="W755" s="3"/>
       <c r="X755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:24" ht="15.75" customHeight="1">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="7"/>
@@ -20120,7 +20288,7 @@
       <c r="W756" s="3"/>
       <c r="X756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:24" ht="15.75" customHeight="1">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="7"/>
@@ -20146,7 +20314,7 @@
       <c r="W757" s="3"/>
       <c r="X757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:24" ht="15.75" customHeight="1">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="7"/>
@@ -20172,7 +20340,7 @@
       <c r="W758" s="3"/>
       <c r="X758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:24" ht="15.75" customHeight="1">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="7"/>
@@ -20198,7 +20366,7 @@
       <c r="W759" s="3"/>
       <c r="X759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:24" ht="15.75" customHeight="1">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="7"/>
@@ -20224,7 +20392,7 @@
       <c r="W760" s="3"/>
       <c r="X760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:24" ht="15.75" customHeight="1">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="7"/>
@@ -20250,7 +20418,7 @@
       <c r="W761" s="3"/>
       <c r="X761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:24" ht="15.75" customHeight="1">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="7"/>
@@ -20276,7 +20444,7 @@
       <c r="W762" s="3"/>
       <c r="X762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:24" ht="15.75" customHeight="1">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="7"/>
@@ -20302,7 +20470,7 @@
       <c r="W763" s="3"/>
       <c r="X763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:24" ht="15.75" customHeight="1">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="7"/>
@@ -20328,7 +20496,7 @@
       <c r="W764" s="3"/>
       <c r="X764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:24" ht="15.75" customHeight="1">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="7"/>
@@ -20354,7 +20522,7 @@
       <c r="W765" s="3"/>
       <c r="X765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:24" ht="15.75" customHeight="1">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="7"/>
@@ -20380,7 +20548,7 @@
       <c r="W766" s="3"/>
       <c r="X766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:24" ht="15.75" customHeight="1">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="7"/>
@@ -20406,7 +20574,7 @@
       <c r="W767" s="3"/>
       <c r="X767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:24" ht="15.75" customHeight="1">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="7"/>
@@ -20432,7 +20600,7 @@
       <c r="W768" s="3"/>
       <c r="X768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:24" ht="15.75" customHeight="1">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="7"/>
@@ -20458,7 +20626,7 @@
       <c r="W769" s="3"/>
       <c r="X769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:24" ht="15.75" customHeight="1">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="7"/>
@@ -20484,7 +20652,7 @@
       <c r="W770" s="3"/>
       <c r="X770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:24" ht="15.75" customHeight="1">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="7"/>
@@ -20510,7 +20678,7 @@
       <c r="W771" s="3"/>
       <c r="X771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:24" ht="15.75" customHeight="1">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="7"/>
@@ -20536,7 +20704,7 @@
       <c r="W772" s="3"/>
       <c r="X772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:24" ht="15.75" customHeight="1">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="7"/>
@@ -20562,7 +20730,7 @@
       <c r="W773" s="3"/>
       <c r="X773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:24" ht="15.75" customHeight="1">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="7"/>
@@ -20588,7 +20756,7 @@
       <c r="W774" s="3"/>
       <c r="X774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:24" ht="15.75" customHeight="1">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="7"/>
@@ -20614,7 +20782,7 @@
       <c r="W775" s="3"/>
       <c r="X775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:24" ht="15.75" customHeight="1">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="7"/>
@@ -20640,7 +20808,7 @@
       <c r="W776" s="3"/>
       <c r="X776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:24" ht="15.75" customHeight="1">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="7"/>
@@ -20666,7 +20834,7 @@
       <c r="W777" s="3"/>
       <c r="X777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:24" ht="15.75" customHeight="1">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="7"/>
@@ -20692,7 +20860,7 @@
       <c r="W778" s="3"/>
       <c r="X778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:24" ht="15.75" customHeight="1">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="7"/>
@@ -20718,7 +20886,7 @@
       <c r="W779" s="3"/>
       <c r="X779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:24" ht="15.75" customHeight="1">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="7"/>
@@ -20744,7 +20912,7 @@
       <c r="W780" s="3"/>
       <c r="X780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:24" ht="15.75" customHeight="1">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="7"/>
@@ -20770,7 +20938,7 @@
       <c r="W781" s="3"/>
       <c r="X781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:24" ht="15.75" customHeight="1">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="7"/>
@@ -20796,7 +20964,7 @@
       <c r="W782" s="3"/>
       <c r="X782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:24" ht="15.75" customHeight="1">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="7"/>
@@ -20822,7 +20990,7 @@
       <c r="W783" s="3"/>
       <c r="X783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:24" ht="15.75" customHeight="1">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="7"/>
@@ -20848,7 +21016,7 @@
       <c r="W784" s="3"/>
       <c r="X784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:24" ht="15.75" customHeight="1">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="7"/>
@@ -20874,7 +21042,7 @@
       <c r="W785" s="3"/>
       <c r="X785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:24" ht="15.75" customHeight="1">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="7"/>
@@ -20900,7 +21068,7 @@
       <c r="W786" s="3"/>
       <c r="X786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:24" ht="15.75" customHeight="1">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="7"/>
@@ -20926,7 +21094,7 @@
       <c r="W787" s="3"/>
       <c r="X787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:24" ht="15.75" customHeight="1">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="7"/>
@@ -20952,7 +21120,7 @@
       <c r="W788" s="3"/>
       <c r="X788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:24" ht="15.75" customHeight="1">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="7"/>
@@ -20978,7 +21146,7 @@
       <c r="W789" s="3"/>
       <c r="X789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:24" ht="15.75" customHeight="1">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="7"/>
@@ -21004,7 +21172,7 @@
       <c r="W790" s="3"/>
       <c r="X790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:24" ht="15.75" customHeight="1">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="7"/>
@@ -21030,7 +21198,7 @@
       <c r="W791" s="3"/>
       <c r="X791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:24" ht="15.75" customHeight="1">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="7"/>
@@ -21056,7 +21224,7 @@
       <c r="W792" s="3"/>
       <c r="X792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:24" ht="15.75" customHeight="1">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="7"/>
@@ -21082,7 +21250,7 @@
       <c r="W793" s="3"/>
       <c r="X793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:24" ht="15.75" customHeight="1">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="7"/>
@@ -21108,7 +21276,7 @@
       <c r="W794" s="3"/>
       <c r="X794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:24" ht="15.75" customHeight="1">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="7"/>
@@ -21134,7 +21302,7 @@
       <c r="W795" s="3"/>
       <c r="X795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:24" ht="15.75" customHeight="1">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="7"/>
@@ -21160,7 +21328,7 @@
       <c r="W796" s="3"/>
       <c r="X796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:24" ht="15.75" customHeight="1">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="7"/>
@@ -21186,7 +21354,7 @@
       <c r="W797" s="3"/>
       <c r="X797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:24" ht="15.75" customHeight="1">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="7"/>
@@ -21212,7 +21380,7 @@
       <c r="W798" s="3"/>
       <c r="X798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:24" ht="15.75" customHeight="1">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="7"/>
@@ -21238,7 +21406,7 @@
       <c r="W799" s="3"/>
       <c r="X799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:24" ht="15.75" customHeight="1">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="7"/>
@@ -21264,7 +21432,7 @@
       <c r="W800" s="3"/>
       <c r="X800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:24" ht="15.75" customHeight="1">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="7"/>
@@ -21290,7 +21458,7 @@
       <c r="W801" s="3"/>
       <c r="X801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:24" ht="15.75" customHeight="1">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="7"/>
@@ -21316,7 +21484,7 @@
       <c r="W802" s="3"/>
       <c r="X802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:24" ht="15.75" customHeight="1">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="7"/>
@@ -21342,7 +21510,7 @@
       <c r="W803" s="3"/>
       <c r="X803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:24" ht="15.75" customHeight="1">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="7"/>
@@ -21368,7 +21536,7 @@
       <c r="W804" s="3"/>
       <c r="X804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:24" ht="15.75" customHeight="1">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="7"/>
@@ -21394,7 +21562,7 @@
       <c r="W805" s="3"/>
       <c r="X805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:24" ht="15.75" customHeight="1">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="7"/>
@@ -21420,7 +21588,7 @@
       <c r="W806" s="3"/>
       <c r="X806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:24" ht="15.75" customHeight="1">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="7"/>
@@ -21446,7 +21614,7 @@
       <c r="W807" s="3"/>
       <c r="X807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:24" ht="15.75" customHeight="1">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="7"/>
@@ -21472,7 +21640,7 @@
       <c r="W808" s="3"/>
       <c r="X808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:24" ht="15.75" customHeight="1">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="7"/>
@@ -21498,7 +21666,7 @@
       <c r="W809" s="3"/>
       <c r="X809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:24" ht="15.75" customHeight="1">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="7"/>
@@ -21524,7 +21692,7 @@
       <c r="W810" s="3"/>
       <c r="X810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:24" ht="15.75" customHeight="1">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="7"/>
@@ -21550,7 +21718,7 @@
       <c r="W811" s="3"/>
       <c r="X811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:24" ht="15.75" customHeight="1">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="7"/>
@@ -21576,7 +21744,7 @@
       <c r="W812" s="3"/>
       <c r="X812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:24" ht="15.75" customHeight="1">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="7"/>
@@ -21602,7 +21770,7 @@
       <c r="W813" s="3"/>
       <c r="X813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:24" ht="15.75" customHeight="1">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="7"/>
@@ -21628,7 +21796,7 @@
       <c r="W814" s="3"/>
       <c r="X814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:24" ht="15.75" customHeight="1">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="7"/>
@@ -21654,7 +21822,7 @@
       <c r="W815" s="3"/>
       <c r="X815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:24" ht="15.75" customHeight="1">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="7"/>
@@ -21680,7 +21848,7 @@
       <c r="W816" s="3"/>
       <c r="X816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:24" ht="15.75" customHeight="1">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="7"/>
@@ -21706,7 +21874,7 @@
       <c r="W817" s="3"/>
       <c r="X817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:24" ht="15.75" customHeight="1">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="7"/>
@@ -21732,7 +21900,7 @@
       <c r="W818" s="3"/>
       <c r="X818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:24" ht="15.75" customHeight="1">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="7"/>
@@ -21758,7 +21926,7 @@
       <c r="W819" s="3"/>
       <c r="X819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:24" ht="15.75" customHeight="1">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="7"/>
@@ -21784,7 +21952,7 @@
       <c r="W820" s="3"/>
       <c r="X820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:24" ht="15.75" customHeight="1">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="7"/>
@@ -21810,7 +21978,7 @@
       <c r="W821" s="3"/>
       <c r="X821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:24" ht="15.75" customHeight="1">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="7"/>
@@ -21836,7 +22004,7 @@
       <c r="W822" s="3"/>
       <c r="X822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:24" ht="15.75" customHeight="1">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="7"/>
@@ -21862,7 +22030,7 @@
       <c r="W823" s="3"/>
       <c r="X823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:24" ht="15.75" customHeight="1">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="7"/>
@@ -21888,7 +22056,7 @@
       <c r="W824" s="3"/>
       <c r="X824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:24" ht="15.75" customHeight="1">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="7"/>
@@ -21914,7 +22082,7 @@
       <c r="W825" s="3"/>
       <c r="X825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:24" ht="15.75" customHeight="1">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="7"/>
@@ -21940,7 +22108,7 @@
       <c r="W826" s="3"/>
       <c r="X826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:24" ht="15.75" customHeight="1">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="7"/>
@@ -21966,7 +22134,7 @@
       <c r="W827" s="3"/>
       <c r="X827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:24" ht="15.75" customHeight="1">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="7"/>
@@ -21992,7 +22160,7 @@
       <c r="W828" s="3"/>
       <c r="X828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:24" ht="15.75" customHeight="1">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="7"/>
@@ -22018,7 +22186,7 @@
       <c r="W829" s="3"/>
       <c r="X829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:24" ht="15.75" customHeight="1">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="7"/>
@@ -22044,7 +22212,7 @@
       <c r="W830" s="3"/>
       <c r="X830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:24" ht="15.75" customHeight="1">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="7"/>
@@ -22070,7 +22238,7 @@
       <c r="W831" s="3"/>
       <c r="X831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:24" ht="15.75" customHeight="1">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="7"/>
@@ -22096,7 +22264,7 @@
       <c r="W832" s="3"/>
       <c r="X832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:24" ht="15.75" customHeight="1">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="7"/>
@@ -22122,7 +22290,7 @@
       <c r="W833" s="3"/>
       <c r="X833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:24" ht="15.75" customHeight="1">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="7"/>
@@ -22148,7 +22316,7 @@
       <c r="W834" s="3"/>
       <c r="X834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:24" ht="15.75" customHeight="1">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="7"/>
@@ -22174,7 +22342,7 @@
       <c r="W835" s="3"/>
       <c r="X835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:24" ht="15.75" customHeight="1">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="7"/>
@@ -22200,7 +22368,7 @@
       <c r="W836" s="3"/>
       <c r="X836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:24" ht="15.75" customHeight="1">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="7"/>
@@ -22226,7 +22394,7 @@
       <c r="W837" s="3"/>
       <c r="X837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:24" ht="15.75" customHeight="1">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="7"/>
@@ -22252,7 +22420,7 @@
       <c r="W838" s="3"/>
       <c r="X838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:24" ht="15.75" customHeight="1">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="7"/>
@@ -22278,7 +22446,7 @@
       <c r="W839" s="3"/>
       <c r="X839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:24" ht="15.75" customHeight="1">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="7"/>
@@ -22304,7 +22472,7 @@
       <c r="W840" s="3"/>
       <c r="X840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:24" ht="15.75" customHeight="1">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="7"/>
@@ -22330,7 +22498,7 @@
       <c r="W841" s="3"/>
       <c r="X841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:24" ht="15.75" customHeight="1">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="7"/>
@@ -22356,7 +22524,7 @@
       <c r="W842" s="3"/>
       <c r="X842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:24" ht="15.75" customHeight="1">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="7"/>
@@ -22382,7 +22550,7 @@
       <c r="W843" s="3"/>
       <c r="X843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:24" ht="15.75" customHeight="1">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="7"/>
@@ -22408,7 +22576,7 @@
       <c r="W844" s="3"/>
       <c r="X844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:24" ht="15.75" customHeight="1">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="7"/>
@@ -22434,7 +22602,7 @@
       <c r="W845" s="3"/>
       <c r="X845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:24" ht="15.75" customHeight="1">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="7"/>
@@ -22460,7 +22628,7 @@
       <c r="W846" s="3"/>
       <c r="X846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:24" ht="15.75" customHeight="1">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="7"/>
@@ -22486,7 +22654,7 @@
       <c r="W847" s="3"/>
       <c r="X847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:24" ht="15.75" customHeight="1">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="7"/>
@@ -22512,7 +22680,7 @@
       <c r="W848" s="3"/>
       <c r="X848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:24" ht="15.75" customHeight="1">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="7"/>
@@ -22538,7 +22706,7 @@
       <c r="W849" s="3"/>
       <c r="X849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:24" ht="15.75" customHeight="1">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="7"/>
@@ -22564,7 +22732,7 @@
       <c r="W850" s="3"/>
       <c r="X850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:24" ht="15.75" customHeight="1">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="7"/>
@@ -22590,7 +22758,7 @@
       <c r="W851" s="3"/>
       <c r="X851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:24" ht="15.75" customHeight="1">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="7"/>
@@ -22616,7 +22784,7 @@
       <c r="W852" s="3"/>
       <c r="X852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:24" ht="15.75" customHeight="1">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="7"/>
@@ -22642,7 +22810,7 @@
       <c r="W853" s="3"/>
       <c r="X853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:24" ht="15.75" customHeight="1">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="7"/>
@@ -22668,7 +22836,7 @@
       <c r="W854" s="3"/>
       <c r="X854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:24" ht="15.75" customHeight="1">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="7"/>
@@ -22694,7 +22862,7 @@
       <c r="W855" s="3"/>
       <c r="X855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:24" ht="15.75" customHeight="1">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="7"/>
@@ -22720,7 +22888,7 @@
       <c r="W856" s="3"/>
       <c r="X856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:24" ht="15.75" customHeight="1">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="7"/>
@@ -22746,7 +22914,7 @@
       <c r="W857" s="3"/>
       <c r="X857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:24" ht="15.75" customHeight="1">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="7"/>
@@ -22772,7 +22940,7 @@
       <c r="W858" s="3"/>
       <c r="X858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:24" ht="15.75" customHeight="1">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="7"/>
@@ -22798,7 +22966,7 @@
       <c r="W859" s="3"/>
       <c r="X859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:24" ht="15.75" customHeight="1">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="7"/>
@@ -22824,7 +22992,7 @@
       <c r="W860" s="3"/>
       <c r="X860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:24" ht="15.75" customHeight="1">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="7"/>
@@ -22850,7 +23018,7 @@
       <c r="W861" s="3"/>
       <c r="X861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:24" ht="15.75" customHeight="1">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="7"/>
@@ -22876,7 +23044,7 @@
       <c r="W862" s="3"/>
       <c r="X862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:24" ht="15.75" customHeight="1">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="7"/>
@@ -22902,7 +23070,7 @@
       <c r="W863" s="3"/>
       <c r="X863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:24" ht="15.75" customHeight="1">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="7"/>
@@ -22928,7 +23096,7 @@
       <c r="W864" s="3"/>
       <c r="X864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:24" ht="15.75" customHeight="1">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="7"/>
@@ -22954,7 +23122,7 @@
       <c r="W865" s="3"/>
       <c r="X865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:24" ht="15.75" customHeight="1">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="7"/>
@@ -22980,7 +23148,7 @@
       <c r="W866" s="3"/>
       <c r="X866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:24" ht="15.75" customHeight="1">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="7"/>
@@ -23006,7 +23174,7 @@
       <c r="W867" s="3"/>
       <c r="X867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:24" ht="15.75" customHeight="1">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="7"/>
@@ -23032,7 +23200,7 @@
       <c r="W868" s="3"/>
       <c r="X868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:24" ht="15.75" customHeight="1">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="7"/>
@@ -23058,7 +23226,7 @@
       <c r="W869" s="3"/>
       <c r="X869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:24" ht="15.75" customHeight="1">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="7"/>
@@ -23084,7 +23252,7 @@
       <c r="W870" s="3"/>
       <c r="X870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:24" ht="15.75" customHeight="1">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="7"/>
@@ -23110,7 +23278,7 @@
       <c r="W871" s="3"/>
       <c r="X871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:24" ht="15.75" customHeight="1">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="7"/>
@@ -23136,7 +23304,7 @@
       <c r="W872" s="3"/>
       <c r="X872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:24" ht="15.75" customHeight="1">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="7"/>
@@ -23162,7 +23330,7 @@
       <c r="W873" s="3"/>
       <c r="X873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:24" ht="15.75" customHeight="1">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="7"/>
@@ -23188,7 +23356,7 @@
       <c r="W874" s="3"/>
       <c r="X874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:24" ht="15.75" customHeight="1">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="7"/>
@@ -23214,7 +23382,7 @@
       <c r="W875" s="3"/>
       <c r="X875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:24" ht="15.75" customHeight="1">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="7"/>
@@ -23240,7 +23408,7 @@
       <c r="W876" s="3"/>
       <c r="X876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:24" ht="15.75" customHeight="1">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="7"/>
@@ -23266,7 +23434,7 @@
       <c r="W877" s="3"/>
       <c r="X877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:24" ht="15.75" customHeight="1">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="7"/>
@@ -23292,7 +23460,7 @@
       <c r="W878" s="3"/>
       <c r="X878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:24" ht="15.75" customHeight="1">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="7"/>
@@ -23318,7 +23486,7 @@
       <c r="W879" s="3"/>
       <c r="X879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:24" ht="15.75" customHeight="1">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="7"/>
@@ -23344,7 +23512,7 @@
       <c r="W880" s="3"/>
       <c r="X880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:24" ht="15.75" customHeight="1">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="7"/>
@@ -23370,7 +23538,7 @@
       <c r="W881" s="3"/>
       <c r="X881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:24" ht="15.75" customHeight="1">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="7"/>
@@ -23396,7 +23564,7 @@
       <c r="W882" s="3"/>
       <c r="X882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:24" ht="15.75" customHeight="1">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="7"/>
@@ -23422,7 +23590,7 @@
       <c r="W883" s="3"/>
       <c r="X883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:24" ht="15.75" customHeight="1">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="7"/>
@@ -23448,7 +23616,7 @@
       <c r="W884" s="3"/>
       <c r="X884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:24" ht="15.75" customHeight="1">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="7"/>
@@ -23474,7 +23642,7 @@
       <c r="W885" s="3"/>
       <c r="X885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:24" ht="15.75" customHeight="1">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="7"/>
@@ -23500,7 +23668,7 @@
       <c r="W886" s="3"/>
       <c r="X886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:24" ht="15.75" customHeight="1">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="7"/>
@@ -23526,7 +23694,7 @@
       <c r="W887" s="3"/>
       <c r="X887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:24" ht="15.75" customHeight="1">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="7"/>
@@ -23552,7 +23720,7 @@
       <c r="W888" s="3"/>
       <c r="X888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:24" ht="15.75" customHeight="1">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="7"/>
@@ -23578,7 +23746,7 @@
       <c r="W889" s="3"/>
       <c r="X889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:24" ht="15.75" customHeight="1">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="7"/>
@@ -23604,7 +23772,7 @@
       <c r="W890" s="3"/>
       <c r="X890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:24" ht="15.75" customHeight="1">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="7"/>
@@ -23630,7 +23798,7 @@
       <c r="W891" s="3"/>
       <c r="X891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:24" ht="15.75" customHeight="1">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="7"/>
@@ -23656,7 +23824,7 @@
       <c r="W892" s="3"/>
       <c r="X892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:24" ht="15.75" customHeight="1">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="7"/>
@@ -23682,7 +23850,7 @@
       <c r="W893" s="3"/>
       <c r="X893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:24" ht="15.75" customHeight="1">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="7"/>
@@ -23708,7 +23876,7 @@
       <c r="W894" s="3"/>
       <c r="X894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:24" ht="15.75" customHeight="1">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="7"/>
@@ -23734,7 +23902,7 @@
       <c r="W895" s="3"/>
       <c r="X895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:24" ht="15.75" customHeight="1">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="7"/>
@@ -23760,7 +23928,7 @@
       <c r="W896" s="3"/>
       <c r="X896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:24" ht="15.75" customHeight="1">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="7"/>
@@ -23786,7 +23954,7 @@
       <c r="W897" s="3"/>
       <c r="X897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:24" ht="15.75" customHeight="1">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="7"/>
@@ -23812,7 +23980,7 @@
       <c r="W898" s="3"/>
       <c r="X898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:24" ht="15.75" customHeight="1">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="7"/>
@@ -23838,7 +24006,7 @@
       <c r="W899" s="3"/>
       <c r="X899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:24" ht="15.75" customHeight="1">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="7"/>
@@ -23864,7 +24032,7 @@
       <c r="W900" s="3"/>
       <c r="X900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:24" ht="15.75" customHeight="1">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="7"/>
@@ -23890,7 +24058,7 @@
       <c r="W901" s="3"/>
       <c r="X901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:24" ht="15.75" customHeight="1">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="7"/>
@@ -23916,7 +24084,7 @@
       <c r="W902" s="3"/>
       <c r="X902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:24" ht="15.75" customHeight="1">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="7"/>
@@ -23942,7 +24110,7 @@
       <c r="W903" s="3"/>
       <c r="X903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:24" ht="15.75" customHeight="1">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="7"/>
@@ -23968,7 +24136,7 @@
       <c r="W904" s="3"/>
       <c r="X904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:24" ht="15.75" customHeight="1">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="7"/>
@@ -23994,7 +24162,7 @@
       <c r="W905" s="3"/>
       <c r="X905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:24" ht="15.75" customHeight="1">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="7"/>
@@ -24020,7 +24188,7 @@
       <c r="W906" s="3"/>
       <c r="X906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:24" ht="15.75" customHeight="1">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="7"/>
@@ -24046,7 +24214,7 @@
       <c r="W907" s="3"/>
       <c r="X907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:24" ht="15.75" customHeight="1">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="7"/>
@@ -24072,7 +24240,7 @@
       <c r="W908" s="3"/>
       <c r="X908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:24" ht="15.75" customHeight="1">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="7"/>
@@ -24098,7 +24266,7 @@
       <c r="W909" s="3"/>
       <c r="X909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:24" ht="15.75" customHeight="1">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="7"/>
@@ -24124,7 +24292,7 @@
       <c r="W910" s="3"/>
       <c r="X910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:24" ht="15.75" customHeight="1">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="7"/>
@@ -24150,7 +24318,7 @@
       <c r="W911" s="3"/>
       <c r="X911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:24" ht="15.75" customHeight="1">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="7"/>
@@ -24176,7 +24344,7 @@
       <c r="W912" s="3"/>
       <c r="X912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:24" ht="15.75" customHeight="1">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="7"/>
@@ -24202,7 +24370,7 @@
       <c r="W913" s="3"/>
       <c r="X913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:24" ht="15.75" customHeight="1">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="7"/>
@@ -24228,7 +24396,7 @@
       <c r="W914" s="3"/>
       <c r="X914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:24" ht="15.75" customHeight="1">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="7"/>
@@ -24254,7 +24422,7 @@
       <c r="W915" s="3"/>
       <c r="X915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:24" ht="15.75" customHeight="1">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="7"/>
@@ -24280,7 +24448,7 @@
       <c r="W916" s="3"/>
       <c r="X916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:24" ht="15.75" customHeight="1">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="7"/>
@@ -24306,7 +24474,7 @@
       <c r="W917" s="3"/>
       <c r="X917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:24" ht="15.75" customHeight="1">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="7"/>
@@ -24332,7 +24500,7 @@
       <c r="W918" s="3"/>
       <c r="X918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:24" ht="15.75" customHeight="1">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="7"/>
@@ -24358,7 +24526,7 @@
       <c r="W919" s="3"/>
       <c r="X919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:24" ht="15.75" customHeight="1">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="7"/>
@@ -24384,7 +24552,7 @@
       <c r="W920" s="3"/>
       <c r="X920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:24" ht="15.75" customHeight="1">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="7"/>
@@ -24410,7 +24578,7 @@
       <c r="W921" s="3"/>
       <c r="X921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:24" ht="15.75" customHeight="1">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="7"/>
@@ -24436,7 +24604,7 @@
       <c r="W922" s="3"/>
       <c r="X922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:24" ht="15.75" customHeight="1">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="7"/>
@@ -24462,7 +24630,7 @@
       <c r="W923" s="3"/>
       <c r="X923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:24" ht="15.75" customHeight="1">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="7"/>
@@ -24488,7 +24656,7 @@
       <c r="W924" s="3"/>
       <c r="X924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:24" ht="15.75" customHeight="1">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="7"/>
@@ -24514,7 +24682,7 @@
       <c r="W925" s="3"/>
       <c r="X925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:24" ht="15.75" customHeight="1">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="7"/>
@@ -24540,7 +24708,7 @@
       <c r="W926" s="3"/>
       <c r="X926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:24" ht="15.75" customHeight="1">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="7"/>
@@ -24566,7 +24734,7 @@
       <c r="W927" s="3"/>
       <c r="X927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:24" ht="15.75" customHeight="1">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="7"/>
@@ -24592,7 +24760,7 @@
       <c r="W928" s="3"/>
       <c r="X928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:24" ht="15.75" customHeight="1">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="7"/>
@@ -24618,7 +24786,7 @@
       <c r="W929" s="3"/>
       <c r="X929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:24" ht="15.75" customHeight="1">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="7"/>
@@ -24644,7 +24812,7 @@
       <c r="W930" s="3"/>
       <c r="X930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:24" ht="15.75" customHeight="1">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="7"/>
@@ -24670,7 +24838,7 @@
       <c r="W931" s="3"/>
       <c r="X931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:24" ht="15.75" customHeight="1">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="7"/>
@@ -24696,7 +24864,7 @@
       <c r="W932" s="3"/>
       <c r="X932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:24" ht="15.75" customHeight="1">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="7"/>
@@ -24722,7 +24890,7 @@
       <c r="W933" s="3"/>
       <c r="X933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:24" ht="15.75" customHeight="1">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="7"/>
@@ -24748,7 +24916,7 @@
       <c r="W934" s="3"/>
       <c r="X934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:24" ht="15.75" customHeight="1">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="7"/>
@@ -24774,7 +24942,7 @@
       <c r="W935" s="3"/>
       <c r="X935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:24" ht="15.75" customHeight="1">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="7"/>
@@ -24800,7 +24968,7 @@
       <c r="W936" s="3"/>
       <c r="X936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:24" ht="15.75" customHeight="1">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="7"/>
@@ -24826,7 +24994,7 @@
       <c r="W937" s="3"/>
       <c r="X937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:24" ht="15.75" customHeight="1">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="7"/>
@@ -24852,7 +25020,7 @@
       <c r="W938" s="3"/>
       <c r="X938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:24" ht="15.75" customHeight="1">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="7"/>
@@ -24878,7 +25046,7 @@
       <c r="W939" s="3"/>
       <c r="X939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:24" ht="15.75" customHeight="1">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="7"/>
@@ -24904,7 +25072,7 @@
       <c r="W940" s="3"/>
       <c r="X940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:24" ht="15.75" customHeight="1">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="7"/>
@@ -24930,7 +25098,7 @@
       <c r="W941" s="3"/>
       <c r="X941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:24" ht="15.75" customHeight="1">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="7"/>
@@ -24956,7 +25124,7 @@
       <c r="W942" s="3"/>
       <c r="X942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:24" ht="15.75" customHeight="1">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="7"/>
@@ -24982,7 +25150,7 @@
       <c r="W943" s="3"/>
       <c r="X943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:24" ht="15.75" customHeight="1">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="7"/>
@@ -25008,7 +25176,7 @@
       <c r="W944" s="3"/>
       <c r="X944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:24" ht="15.75" customHeight="1">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="7"/>
@@ -25034,7 +25202,7 @@
       <c r="W945" s="3"/>
       <c r="X945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:24" ht="15.75" customHeight="1">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="7"/>
@@ -25060,7 +25228,7 @@
       <c r="W946" s="3"/>
       <c r="X946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:24" ht="15.75" customHeight="1">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="7"/>
@@ -25086,7 +25254,7 @@
       <c r="W947" s="3"/>
       <c r="X947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:24" ht="15.75" customHeight="1">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="7"/>
@@ -25112,7 +25280,7 @@
       <c r="W948" s="3"/>
       <c r="X948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:24" ht="15.75" customHeight="1">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="7"/>
@@ -25138,7 +25306,7 @@
       <c r="W949" s="3"/>
       <c r="X949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:24" ht="15.75" customHeight="1">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="7"/>
@@ -25164,7 +25332,7 @@
       <c r="W950" s="3"/>
       <c r="X950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:24" ht="15.75" customHeight="1">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="7"/>
@@ -25190,7 +25358,7 @@
       <c r="W951" s="3"/>
       <c r="X951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:24" ht="15.75" customHeight="1">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="7"/>
@@ -25216,7 +25384,7 @@
       <c r="W952" s="3"/>
       <c r="X952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:24" ht="15.75" customHeight="1">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="7"/>
@@ -25242,7 +25410,7 @@
       <c r="W953" s="3"/>
       <c r="X953" s="3"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:24" ht="15.75" customHeight="1">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="7"/>
@@ -25268,7 +25436,7 @@
       <c r="W954" s="3"/>
       <c r="X954" s="3"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:24" ht="15.75" customHeight="1">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="7"/>
@@ -25294,7 +25462,7 @@
       <c r="W955" s="3"/>
       <c r="X955" s="3"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:24" ht="15.75" customHeight="1">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="7"/>
@@ -25320,7 +25488,7 @@
       <c r="W956" s="3"/>
       <c r="X956" s="3"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:24" ht="15.75" customHeight="1">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="7"/>
@@ -25346,7 +25514,7 @@
       <c r="W957" s="3"/>
       <c r="X957" s="3"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:24" ht="15.75" customHeight="1">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="7"/>
@@ -25372,7 +25540,7 @@
       <c r="W958" s="3"/>
       <c r="X958" s="3"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:24" ht="15.75" customHeight="1">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="7"/>
@@ -25398,7 +25566,7 @@
       <c r="W959" s="3"/>
       <c r="X959" s="3"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:24" ht="15.75" customHeight="1">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="7"/>
@@ -25424,7 +25592,7 @@
       <c r="W960" s="3"/>
       <c r="X960" s="3"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:24" ht="15.75" customHeight="1">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="7"/>
@@ -25450,7 +25618,7 @@
       <c r="W961" s="3"/>
       <c r="X961" s="3"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:24" ht="15.75" customHeight="1">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="7"/>
@@ -25476,7 +25644,7 @@
       <c r="W962" s="3"/>
       <c r="X962" s="3"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:24" ht="15.75" customHeight="1">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="7"/>
@@ -25502,7 +25670,7 @@
       <c r="W963" s="3"/>
       <c r="X963" s="3"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:24" ht="15.75" customHeight="1">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="7"/>
@@ -25528,7 +25696,7 @@
       <c r="W964" s="3"/>
       <c r="X964" s="3"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:24" ht="15.75" customHeight="1">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="7"/>
@@ -25554,7 +25722,7 @@
       <c r="W965" s="3"/>
       <c r="X965" s="3"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:24" ht="15.75" customHeight="1">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="7"/>
@@ -25580,7 +25748,7 @@
       <c r="W966" s="3"/>
       <c r="X966" s="3"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:24" ht="15.75" customHeight="1">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="7"/>
@@ -25606,7 +25774,7 @@
       <c r="W967" s="3"/>
       <c r="X967" s="3"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:24" ht="15.75" customHeight="1">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="7"/>
@@ -25632,7 +25800,7 @@
       <c r="W968" s="3"/>
       <c r="X968" s="3"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:24" ht="15.75" customHeight="1">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="7"/>
@@ -25658,7 +25826,7 @@
       <c r="W969" s="3"/>
       <c r="X969" s="3"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:24" ht="15.75" customHeight="1">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="7"/>
@@ -25684,7 +25852,7 @@
       <c r="W970" s="3"/>
       <c r="X970" s="3"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:24" ht="15.75" customHeight="1">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="7"/>
@@ -25710,7 +25878,7 @@
       <c r="W971" s="3"/>
       <c r="X971" s="3"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:24" ht="15.75" customHeight="1">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="7"/>
@@ -25736,7 +25904,7 @@
       <c r="W972" s="3"/>
       <c r="X972" s="3"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:24" ht="15.75" customHeight="1">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="7"/>
@@ -25762,7 +25930,7 @@
       <c r="W973" s="3"/>
       <c r="X973" s="3"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:24" ht="15.75" customHeight="1">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="7"/>
@@ -25788,7 +25956,7 @@
       <c r="W974" s="3"/>
       <c r="X974" s="3"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:24" ht="15.75" customHeight="1">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="7"/>
@@ -25814,7 +25982,7 @@
       <c r="W975" s="3"/>
       <c r="X975" s="3"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:24" ht="15.75" customHeight="1">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="7"/>
@@ -25840,7 +26008,7 @@
       <c r="W976" s="3"/>
       <c r="X976" s="3"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:24" ht="15.75" customHeight="1">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="7"/>
@@ -25866,7 +26034,7 @@
       <c r="W977" s="3"/>
       <c r="X977" s="3"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:24" ht="15.75" customHeight="1">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="7"/>
@@ -25892,7 +26060,7 @@
       <c r="W978" s="3"/>
       <c r="X978" s="3"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:24" ht="15.75" customHeight="1">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="7"/>
@@ -25918,7 +26086,7 @@
       <c r="W979" s="3"/>
       <c r="X979" s="3"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:24" ht="15.75" customHeight="1">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="7"/>
@@ -25944,7 +26112,7 @@
       <c r="W980" s="3"/>
       <c r="X980" s="3"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:24" ht="15.75" customHeight="1">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="7"/>
@@ -25970,7 +26138,7 @@
       <c r="W981" s="3"/>
       <c r="X981" s="3"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:24" ht="15.75" customHeight="1">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="7"/>
@@ -25996,7 +26164,7 @@
       <c r="W982" s="3"/>
       <c r="X982" s="3"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:24" ht="15.75" customHeight="1">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="7"/>
@@ -26022,7 +26190,7 @@
       <c r="W983" s="3"/>
       <c r="X983" s="3"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:24" ht="15.75" customHeight="1">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="7"/>
@@ -26048,7 +26216,7 @@
       <c r="W984" s="3"/>
       <c r="X984" s="3"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:24" ht="15.75" customHeight="1">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="7"/>
@@ -26074,7 +26242,7 @@
       <c r="W985" s="3"/>
       <c r="X985" s="3"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:24" ht="15.75" customHeight="1">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="7"/>
@@ -26100,7 +26268,7 @@
       <c r="W986" s="3"/>
       <c r="X986" s="3"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:24" ht="15.75" customHeight="1">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="7"/>
@@ -26126,7 +26294,7 @@
       <c r="W987" s="3"/>
       <c r="X987" s="3"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:24" ht="15.75" customHeight="1">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="7"/>
@@ -26152,7 +26320,7 @@
       <c r="W988" s="3"/>
       <c r="X988" s="3"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:24" ht="15.75" customHeight="1">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="7"/>
@@ -26178,7 +26346,7 @@
       <c r="W989" s="3"/>
       <c r="X989" s="3"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:24" ht="15.75" customHeight="1">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="7"/>
@@ -26204,7 +26372,7 @@
       <c r="W990" s="3"/>
       <c r="X990" s="3"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:24" ht="15.75" customHeight="1">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="7"/>
@@ -26230,7 +26398,7 @@
       <c r="W991" s="3"/>
       <c r="X991" s="3"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:24" ht="15.75" customHeight="1">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="7"/>
@@ -26256,7 +26424,7 @@
       <c r="W992" s="3"/>
       <c r="X992" s="3"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:24" ht="15.75" customHeight="1">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="7"/>
@@ -26282,7 +26450,7 @@
       <c r="W993" s="3"/>
       <c r="X993" s="3"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:24" ht="15.75" customHeight="1">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="7"/>
@@ -26308,7 +26476,7 @@
       <c r="W994" s="3"/>
       <c r="X994" s="3"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:24" ht="15.75" customHeight="1">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="7"/>
@@ -26334,7 +26502,7 @@
       <c r="W995" s="3"/>
       <c r="X995" s="3"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:24" ht="15.75" customHeight="1">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="7"/>
@@ -26360,7 +26528,7 @@
       <c r="W996" s="3"/>
       <c r="X996" s="3"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:24" ht="15.75" customHeight="1">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="7"/>
@@ -26386,7 +26554,7 @@
       <c r="W997" s="3"/>
       <c r="X997" s="3"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:24" ht="15.75" customHeight="1">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="7"/>
@@ -26412,7 +26580,7 @@
       <c r="W998" s="3"/>
       <c r="X998" s="3"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:24" ht="15.75" customHeight="1">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="7"/>
@@ -26438,7 +26606,7 @@
       <c r="W999" s="3"/>
       <c r="X999" s="3"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="7"/>
@@ -26464,7 +26632,7 @@
       <c r="W1000" s="3"/>
       <c r="X1000" s="3"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1001" s="3"/>
       <c r="B1001" s="3"/>
       <c r="C1001" s="7"/>
@@ -26497,6 +26665,32 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1647088376" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1647088376" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1647088376" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1647088376" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1647088376" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1647088376" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>